--- a/responsibleofficer_lookup.xlsx
+++ b/responsibleofficer_lookup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x02207\Desktop\check_lookups\ResponsibleOfficer_Lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D39F2B-5F52-4D12-811C-5F7EE770738F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F0CA02-B4E2-4758-A9BB-1DB3AFB6FE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ResponsibleOfficer" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ResponsibleOfficer!$A$2:$G$338</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ResponsibleOfficer!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2398,9 +2398,6 @@
     <t>Key</t>
   </si>
   <si>
-    <t>CreditLensDev</t>
-  </si>
-  <si>
     <t>ΑΡΙΑΔΝΗ ΠΑΤΕΡΑΚΗ</t>
   </si>
   <si>
@@ -2507,6 +2504,9 @@
   </si>
   <si>
     <t>ΣΤΗΝ STAGING ME MAPPING NAME NULL KAI Ονοματεπώνυμο ΜΑΚΡΗΣ ΓΕΩΡΓΙΟΣ ΕΚΤΩΡ. EINAI AUTO?</t>
+  </si>
+  <si>
+    <t>CreditLensDevUat</t>
   </si>
 </sst>
 </file>
@@ -2937,15 +2937,6 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2979,12 +2970,21 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3265,16 +3265,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F332" sqref="F332"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="40.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3284,62 +3283,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="30" t="s">
         <v>784</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12" t="s">
-        <v>786</v>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="9" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>810</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="24" t="s">
+        <v>809</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>785</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>809</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+      <c r="G2" s="18" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="19" t="str">
+      <c r="F3" s="16" t="str">
         <f>IF(D3=E3,"Matched","Not Matched")</f>
         <v>Matched</v>
       </c>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3351,7 +3350,7 @@
       <c r="D4" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>169</v>
       </c>
       <c r="F4" s="8" t="str">
@@ -3360,8 +3359,8 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3373,7 +3372,7 @@
       <c r="D5" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="20" t="s">
         <v>171</v>
       </c>
       <c r="F5" s="8" t="str">
@@ -3382,8 +3381,8 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3395,7 +3394,7 @@
       <c r="D6" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="20" t="s">
         <v>173</v>
       </c>
       <c r="F6" s="8" t="str">
@@ -3404,8 +3403,8 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3417,7 +3416,7 @@
       <c r="D7" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="20" t="s">
         <v>175</v>
       </c>
       <c r="F7" s="8" t="str">
@@ -3426,8 +3425,8 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
         <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3439,7 +3438,7 @@
       <c r="D8" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="20" t="s">
         <v>177</v>
       </c>
       <c r="F8" s="8" t="str">
@@ -3448,8 +3447,8 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
         <v>88</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3461,7 +3460,7 @@
       <c r="D9" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>180</v>
       </c>
       <c r="F9" s="8" t="str">
@@ -3470,8 +3469,8 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
         <v>89</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -3483,7 +3482,7 @@
       <c r="D10" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="20" t="s">
         <v>183</v>
       </c>
       <c r="F10" s="8" t="str">
@@ -3492,8 +3491,8 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <v>90</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3505,7 +3504,7 @@
       <c r="D11" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="20" t="s">
         <v>186</v>
       </c>
       <c r="F11" s="8" t="str">
@@ -3514,8 +3513,8 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
         <v>91</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3527,7 +3526,7 @@
       <c r="D12" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F12" s="8" t="str">
@@ -3536,8 +3535,8 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
         <v>92</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -3549,7 +3548,7 @@
       <c r="D13" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="20" t="s">
         <v>192</v>
       </c>
       <c r="F13" s="8" t="str">
@@ -3558,8 +3557,8 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
         <v>93</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3571,7 +3570,7 @@
       <c r="D14" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="20" t="s">
         <v>195</v>
       </c>
       <c r="F14" s="8" t="str">
@@ -3580,8 +3579,8 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
         <v>94</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -3593,7 +3592,7 @@
       <c r="D15" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="20" t="s">
         <v>198</v>
       </c>
       <c r="F15" s="8" t="str">
@@ -3602,8 +3601,8 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
         <v>95</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3615,7 +3614,7 @@
       <c r="D16" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F16" s="8" t="str">
@@ -3624,8 +3623,8 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
         <v>96</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3637,7 +3636,7 @@
       <c r="D17" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="20" t="s">
         <v>204</v>
       </c>
       <c r="F17" s="8" t="str">
@@ -3646,8 +3645,8 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
         <v>97</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3659,7 +3658,7 @@
       <c r="D18" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="20" t="s">
         <v>207</v>
       </c>
       <c r="F18" s="8" t="str">
@@ -3668,8 +3667,8 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
         <v>98</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -3681,7 +3680,7 @@
       <c r="D19" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="20" t="s">
         <v>210</v>
       </c>
       <c r="F19" s="8" t="str">
@@ -3690,8 +3689,8 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
         <v>99</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3703,7 +3702,7 @@
       <c r="D20" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="20" t="s">
         <v>213</v>
       </c>
       <c r="F20" s="8" t="str">
@@ -3712,8 +3711,8 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
         <v>100</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3725,7 +3724,7 @@
       <c r="D21" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="20" t="s">
         <v>216</v>
       </c>
       <c r="F21" s="8" t="str">
@@ -3734,8 +3733,8 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
         <v>101</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3747,7 +3746,7 @@
       <c r="D22" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="20" t="s">
         <v>218</v>
       </c>
       <c r="F22" s="8" t="str">
@@ -3756,8 +3755,8 @@
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
         <v>102</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -3769,7 +3768,7 @@
       <c r="D23" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="20" t="s">
         <v>221</v>
       </c>
       <c r="F23" s="8" t="str">
@@ -3778,8 +3777,8 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
         <v>103</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3791,7 +3790,7 @@
       <c r="D24" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="20" t="s">
         <v>224</v>
       </c>
       <c r="F24" s="8" t="str">
@@ -3800,8 +3799,8 @@
       </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
         <v>104</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -3813,7 +3812,7 @@
       <c r="D25" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="20" t="s">
         <v>227</v>
       </c>
       <c r="F25" s="8" t="str">
@@ -3822,8 +3821,8 @@
       </c>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
         <v>105</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -3835,7 +3834,7 @@
       <c r="D26" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="20" t="s">
         <v>230</v>
       </c>
       <c r="F26" s="8" t="str">
@@ -3844,8 +3843,8 @@
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
         <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -3857,7 +3856,7 @@
       <c r="D27" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="20" t="s">
         <v>233</v>
       </c>
       <c r="F27" s="8" t="str">
@@ -3866,8 +3865,8 @@
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
         <v>107</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -3879,7 +3878,7 @@
       <c r="D28" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="20" t="s">
         <v>235</v>
       </c>
       <c r="F28" s="8" t="str">
@@ -3888,8 +3887,8 @@
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="26">
         <v>108</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3901,7 +3900,7 @@
       <c r="D29" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="20" t="s">
         <v>238</v>
       </c>
       <c r="F29" s="8" t="str">
@@ -3910,8 +3909,8 @@
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
         <v>109</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -3923,7 +3922,7 @@
       <c r="D30" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="20" t="s">
         <v>241</v>
       </c>
       <c r="F30" s="8" t="str">
@@ -3932,8 +3931,8 @@
       </c>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="26">
         <v>110</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -3945,7 +3944,7 @@
       <c r="D31" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="20" t="s">
         <v>244</v>
       </c>
       <c r="F31" s="8" t="str">
@@ -3954,8 +3953,8 @@
       </c>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
         <v>111</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -3967,7 +3966,7 @@
       <c r="D32" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="20" t="s">
         <v>247</v>
       </c>
       <c r="F32" s="8" t="str">
@@ -3976,8 +3975,8 @@
       </c>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="26">
         <v>112</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3989,7 +3988,7 @@
       <c r="D33" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="20" t="s">
         <v>250</v>
       </c>
       <c r="F33" s="8" t="str">
@@ -3998,8 +3997,8 @@
       </c>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
         <v>113</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -4011,7 +4010,7 @@
       <c r="D34" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="20" t="s">
         <v>253</v>
       </c>
       <c r="F34" s="8" t="str">
@@ -4020,8 +4019,8 @@
       </c>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
         <v>114</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -4033,7 +4032,7 @@
       <c r="D35" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="20" t="s">
         <v>256</v>
       </c>
       <c r="F35" s="8" t="str">
@@ -4042,8 +4041,8 @@
       </c>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="26">
         <v>115</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -4055,7 +4054,7 @@
       <c r="D36" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="20" t="s">
         <v>258</v>
       </c>
       <c r="F36" s="8" t="str">
@@ -4064,8 +4063,8 @@
       </c>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="26">
         <v>116</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -4077,7 +4076,7 @@
       <c r="D37" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="20" t="s">
         <v>261</v>
       </c>
       <c r="F37" s="8" t="str">
@@ -4086,8 +4085,8 @@
       </c>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="26">
         <v>117</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -4099,7 +4098,7 @@
       <c r="D38" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="20" t="s">
         <v>264</v>
       </c>
       <c r="F38" s="8" t="str">
@@ -4108,8 +4107,8 @@
       </c>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="26">
         <v>118</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -4121,7 +4120,7 @@
       <c r="D39" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F39" s="8" t="str">
@@ -4131,27 +4130,25 @@
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="29">
-        <v>6</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="23"/>
+      <c r="A40" s="26">
+        <v>313</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="29" t="s">
+        <v>786</v>
+      </c>
       <c r="F40" s="8" t="str">
         <f>IF(D40=E40,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29">
+      <c r="G40" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
         <v>119</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4163,7 +4160,7 @@
       <c r="D41" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="20" t="s">
         <v>269</v>
       </c>
       <c r="F41" s="8" t="str">
@@ -4172,8 +4169,8 @@
       </c>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="26">
         <v>120</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -4185,7 +4182,7 @@
       <c r="D42" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="20" t="s">
         <v>271</v>
       </c>
       <c r="F42" s="8" t="str">
@@ -4194,8 +4191,8 @@
       </c>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="26">
         <v>121</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4207,7 +4204,7 @@
       <c r="D43" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F43" s="8" t="str">
@@ -4216,8 +4213,8 @@
       </c>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="26">
         <v>122</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -4229,7 +4226,7 @@
       <c r="D44" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="20" t="s">
         <v>277</v>
       </c>
       <c r="F44" s="8" t="str">
@@ -4238,8 +4235,8 @@
       </c>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="26">
         <v>123</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -4251,7 +4248,7 @@
       <c r="D45" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="20" t="s">
         <v>280</v>
       </c>
       <c r="F45" s="8" t="str">
@@ -4260,8 +4257,8 @@
       </c>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="26">
         <v>124</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -4273,7 +4270,7 @@
       <c r="D46" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="20" t="s">
         <v>283</v>
       </c>
       <c r="F46" s="8" t="str">
@@ -4282,8 +4279,8 @@
       </c>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="29">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="26">
         <v>125</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -4295,7 +4292,7 @@
       <c r="D47" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="20" t="s">
         <v>286</v>
       </c>
       <c r="F47" s="8" t="str">
@@ -4304,8 +4301,8 @@
       </c>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="26">
         <v>126</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -4317,7 +4314,7 @@
       <c r="D48" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="20" t="s">
         <v>289</v>
       </c>
       <c r="F48" s="8" t="str">
@@ -4326,8 +4323,8 @@
       </c>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="26">
         <v>127</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -4339,7 +4336,7 @@
       <c r="D49" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="20" t="s">
         <v>292</v>
       </c>
       <c r="F49" s="8" t="str">
@@ -4348,8 +4345,8 @@
       </c>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="26">
         <v>128</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -4361,7 +4358,7 @@
       <c r="D50" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="20" t="s">
         <v>295</v>
       </c>
       <c r="F50" s="8" t="str">
@@ -4370,8 +4367,8 @@
       </c>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="29">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="26">
         <v>129</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -4383,7 +4380,7 @@
       <c r="D51" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="20" t="s">
         <v>298</v>
       </c>
       <c r="F51" s="8" t="str">
@@ -4392,8 +4389,8 @@
       </c>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="26">
         <v>130</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -4405,7 +4402,7 @@
       <c r="D52" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="20" t="s">
         <v>301</v>
       </c>
       <c r="F52" s="8" t="str">
@@ -4414,8 +4411,8 @@
       </c>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="29">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="26">
         <v>131</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -4427,7 +4424,7 @@
       <c r="D53" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="20" t="s">
         <v>304</v>
       </c>
       <c r="F53" s="8" t="str">
@@ -4437,27 +4434,25 @@
       <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="29">
-        <v>7</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="23"/>
+      <c r="A54" s="26">
+        <v>314</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="29" t="s">
+        <v>788</v>
+      </c>
       <c r="F54" s="8" t="str">
         <f>IF(D54=E54,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29">
+      <c r="G54" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="26">
         <v>132</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -4469,7 +4464,7 @@
       <c r="D55" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="20" t="s">
         <v>306</v>
       </c>
       <c r="F55" s="8" t="str">
@@ -4478,8 +4473,8 @@
       </c>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="26">
         <v>133</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -4491,7 +4486,7 @@
       <c r="D56" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="20" t="s">
         <v>309</v>
       </c>
       <c r="F56" s="8" t="str">
@@ -4500,8 +4495,8 @@
       </c>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="29">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="26">
         <v>134</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -4513,7 +4508,7 @@
       <c r="D57" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="20" t="s">
         <v>311</v>
       </c>
       <c r="F57" s="8" t="str">
@@ -4522,8 +4517,8 @@
       </c>
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="29">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="26">
         <v>135</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -4535,7 +4530,7 @@
       <c r="D58" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="20" t="s">
         <v>313</v>
       </c>
       <c r="F58" s="8" t="str">
@@ -4544,8 +4539,8 @@
       </c>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="29">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="26">
         <v>136</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -4557,7 +4552,7 @@
       <c r="D59" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="20" t="s">
         <v>316</v>
       </c>
       <c r="F59" s="8" t="str">
@@ -4566,8 +4561,8 @@
       </c>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="29">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="26">
         <v>137</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4579,7 +4574,7 @@
       <c r="D60" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="E60" s="23" t="s">
+      <c r="E60" s="20" t="s">
         <v>318</v>
       </c>
       <c r="F60" s="8" t="str">
@@ -4588,8 +4583,8 @@
       </c>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="29">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="26">
         <v>138</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -4601,7 +4596,7 @@
       <c r="D61" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E61" s="23" t="s">
+      <c r="E61" s="20" t="s">
         <v>321</v>
       </c>
       <c r="F61" s="8" t="str">
@@ -4610,8 +4605,8 @@
       </c>
       <c r="G61" s="8"/>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="29">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="26">
         <v>139</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -4623,7 +4618,7 @@
       <c r="D62" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="20" t="s">
         <v>324</v>
       </c>
       <c r="F62" s="8" t="str">
@@ -4632,8 +4627,8 @@
       </c>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="29">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="26">
         <v>140</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -4645,7 +4640,7 @@
       <c r="D63" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="E63" s="23" t="s">
+      <c r="E63" s="20" t="s">
         <v>326</v>
       </c>
       <c r="F63" s="8" t="str">
@@ -4654,8 +4649,8 @@
       </c>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="29">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="26">
         <v>141</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -4667,7 +4662,7 @@
       <c r="D64" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="20" t="s">
         <v>329</v>
       </c>
       <c r="F64" s="8" t="str">
@@ -4676,8 +4671,8 @@
       </c>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="29">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="26">
         <v>142</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -4689,7 +4684,7 @@
       <c r="D65" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="E65" s="23" t="s">
+      <c r="E65" s="20" t="s">
         <v>332</v>
       </c>
       <c r="F65" s="8" t="str">
@@ -4698,8 +4693,8 @@
       </c>
       <c r="G65" s="8"/>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="29">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="26">
         <v>143</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -4711,7 +4706,7 @@
       <c r="D66" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="E66" s="23" t="s">
+      <c r="E66" s="20" t="s">
         <v>335</v>
       </c>
       <c r="F66" s="8" t="str">
@@ -4720,8 +4715,8 @@
       </c>
       <c r="G66" s="8"/>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="29">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="26">
         <v>144</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -4733,7 +4728,7 @@
       <c r="D67" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E67" s="23" t="s">
+      <c r="E67" s="20" t="s">
         <v>338</v>
       </c>
       <c r="F67" s="8" t="str">
@@ -4742,8 +4737,8 @@
       </c>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="29">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="26">
         <v>145</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -4755,7 +4750,7 @@
       <c r="D68" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E68" s="23" t="s">
+      <c r="E68" s="20" t="s">
         <v>341</v>
       </c>
       <c r="F68" s="8" t="str">
@@ -4764,8 +4759,8 @@
       </c>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="29">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="26">
         <v>146</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -4777,7 +4772,7 @@
       <c r="D69" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E69" s="23" t="s">
+      <c r="E69" s="20" t="s">
         <v>344</v>
       </c>
       <c r="F69" s="8" t="str">
@@ -4786,8 +4781,8 @@
       </c>
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="29">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="26">
         <v>147</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -4799,7 +4794,7 @@
       <c r="D70" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E70" s="23" t="s">
+      <c r="E70" s="20" t="s">
         <v>347</v>
       </c>
       <c r="F70" s="8" t="str">
@@ -4808,8 +4803,8 @@
       </c>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="29">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="26">
         <v>148</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -4821,7 +4816,7 @@
       <c r="D71" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="E71" s="23" t="s">
+      <c r="E71" s="20" t="s">
         <v>350</v>
       </c>
       <c r="F71" s="8" t="str">
@@ -4830,8 +4825,8 @@
       </c>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="29">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="26">
         <v>149</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -4843,7 +4838,7 @@
       <c r="D72" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="E72" s="20" t="s">
         <v>352</v>
       </c>
       <c r="F72" s="8" t="str">
@@ -4852,8 +4847,8 @@
       </c>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="29">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="26">
         <v>150</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -4865,7 +4860,7 @@
       <c r="D73" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E73" s="23" t="s">
+      <c r="E73" s="20" t="s">
         <v>354</v>
       </c>
       <c r="F73" s="8" t="str">
@@ -4874,8 +4869,8 @@
       </c>
       <c r="G73" s="8"/>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="29">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="26">
         <v>151</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -4887,7 +4882,7 @@
       <c r="D74" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="E74" s="23" t="s">
+      <c r="E74" s="20" t="s">
         <v>357</v>
       </c>
       <c r="F74" s="8" t="str">
@@ -4896,8 +4891,8 @@
       </c>
       <c r="G74" s="8"/>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="29">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="26">
         <v>152</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -4909,7 +4904,7 @@
       <c r="D75" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="E75" s="23" t="s">
+      <c r="E75" s="20" t="s">
         <v>359</v>
       </c>
       <c r="F75" s="8" t="str">
@@ -4918,8 +4913,8 @@
       </c>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="29">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="26">
         <v>153</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -4931,7 +4926,7 @@
       <c r="D76" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="E76" s="23" t="s">
+      <c r="E76" s="20" t="s">
         <v>361</v>
       </c>
       <c r="F76" s="8" t="str">
@@ -4941,27 +4936,25 @@
       <c r="G76" s="8"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="29">
-        <v>8</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="23"/>
+      <c r="A77" s="26">
+        <v>315</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="29" t="s">
+        <v>789</v>
+      </c>
       <c r="F77" s="8" t="str">
         <f>IF(D77=E77,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G77" s="8"/>
-    </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="29">
+      <c r="G77" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="26">
         <v>154</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -4973,7 +4966,7 @@
       <c r="D78" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="E78" s="23" t="s">
+      <c r="E78" s="20" t="s">
         <v>364</v>
       </c>
       <c r="F78" s="8" t="str">
@@ -4982,8 +4975,8 @@
       </c>
       <c r="G78" s="8"/>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="29">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="26">
         <v>155</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -4995,7 +4988,7 @@
       <c r="D79" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="E79" s="23" t="s">
+      <c r="E79" s="20" t="s">
         <v>366</v>
       </c>
       <c r="F79" s="8" t="str">
@@ -5005,47 +4998,43 @@
       <c r="G79" s="8"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="29">
-        <v>9</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" s="23"/>
+      <c r="A80" s="26">
+        <v>316</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="29" t="s">
+        <v>790</v>
+      </c>
       <c r="F80" s="8" t="str">
         <f>IF(D80=E80,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G80" s="8"/>
+      <c r="G80" s="8" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="29">
-        <v>10</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="23"/>
+      <c r="A81" s="26">
+        <v>317</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="29" t="s">
+        <v>791</v>
+      </c>
       <c r="F81" s="8" t="str">
         <f>IF(D81=E81,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G81" s="8"/>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="29">
+      <c r="G81" s="8" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="26">
         <v>156</v>
       </c>
       <c r="B82" s="4" t="s">
@@ -5057,7 +5046,7 @@
       <c r="D82" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="E82" s="23" t="s">
+      <c r="E82" s="20" t="s">
         <v>369</v>
       </c>
       <c r="F82" s="8" t="str">
@@ -5066,8 +5055,8 @@
       </c>
       <c r="G82" s="8"/>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="29">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="26">
         <v>157</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -5079,7 +5068,7 @@
       <c r="D83" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="E83" s="23" t="s">
+      <c r="E83" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F83" s="8" t="str">
@@ -5089,27 +5078,25 @@
       <c r="G83" s="8"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="29">
-        <v>11</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" s="23"/>
+      <c r="A84" s="26">
+        <v>318</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="29" t="s">
+        <v>135</v>
+      </c>
       <c r="F84" s="8" t="str">
         <f>IF(D84=E84,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G84" s="8"/>
-    </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29">
+      <c r="G84" s="8" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="26">
         <v>158</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -5121,7 +5108,7 @@
       <c r="D85" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="E85" s="23" t="s">
+      <c r="E85" s="20" t="s">
         <v>375</v>
       </c>
       <c r="F85" s="8" t="str">
@@ -5130,8 +5117,8 @@
       </c>
       <c r="G85" s="8"/>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="29">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="26">
         <v>159</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -5143,7 +5130,7 @@
       <c r="D86" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="E86" s="23" t="s">
+      <c r="E86" s="20" t="s">
         <v>378</v>
       </c>
       <c r="F86" s="8" t="str">
@@ -5152,8 +5139,8 @@
       </c>
       <c r="G86" s="8"/>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="29">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="26">
         <v>160</v>
       </c>
       <c r="B87" s="4" t="s">
@@ -5165,7 +5152,7 @@
       <c r="D87" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="E87" s="23" t="s">
+      <c r="E87" s="20" t="s">
         <v>381</v>
       </c>
       <c r="F87" s="8" t="str">
@@ -5174,8 +5161,8 @@
       </c>
       <c r="G87" s="8"/>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="29">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="26">
         <v>161</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -5187,7 +5174,7 @@
       <c r="D88" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="E88" s="23" t="s">
+      <c r="E88" s="20" t="s">
         <v>384</v>
       </c>
       <c r="F88" s="8" t="str">
@@ -5196,8 +5183,8 @@
       </c>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="29">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="26">
         <v>162</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -5209,7 +5196,7 @@
       <c r="D89" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="E89" s="23" t="s">
+      <c r="E89" s="20" t="s">
         <v>386</v>
       </c>
       <c r="F89" s="8" t="str">
@@ -5218,8 +5205,8 @@
       </c>
       <c r="G89" s="8"/>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="29">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="26">
         <v>163</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -5231,7 +5218,7 @@
       <c r="D90" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="E90" s="23" t="s">
+      <c r="E90" s="20" t="s">
         <v>389</v>
       </c>
       <c r="F90" s="8" t="str">
@@ -5240,8 +5227,8 @@
       </c>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="29">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="26">
         <v>164</v>
       </c>
       <c r="B91" s="4" t="s">
@@ -5253,7 +5240,7 @@
       <c r="D91" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="E91" s="23" t="s">
+      <c r="E91" s="20" t="s">
         <v>392</v>
       </c>
       <c r="F91" s="8" t="str">
@@ -5262,8 +5249,8 @@
       </c>
       <c r="G91" s="8"/>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="29">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="26">
         <v>165</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -5275,7 +5262,7 @@
       <c r="D92" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="E92" s="23" t="s">
+      <c r="E92" s="20" t="s">
         <v>395</v>
       </c>
       <c r="F92" s="8" t="str">
@@ -5285,27 +5272,25 @@
       <c r="G92" s="8"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="29">
-        <v>12</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93" s="23"/>
+      <c r="A93" s="26">
+        <v>319</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="29" t="s">
+        <v>792</v>
+      </c>
       <c r="F93" s="8" t="str">
         <f>IF(D93=E93,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G93" s="8"/>
-    </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="29">
+      <c r="G93" s="8" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="26">
         <v>166</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -5317,7 +5302,7 @@
       <c r="D94" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E94" s="23" t="s">
+      <c r="E94" s="20" t="s">
         <v>398</v>
       </c>
       <c r="F94" s="8" t="str">
@@ -5326,8 +5311,8 @@
       </c>
       <c r="G94" s="8"/>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="29">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="26">
         <v>167</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -5339,7 +5324,7 @@
       <c r="D95" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="E95" s="23" t="s">
+      <c r="E95" s="20" t="s">
         <v>401</v>
       </c>
       <c r="F95" s="8" t="str">
@@ -5348,8 +5333,8 @@
       </c>
       <c r="G95" s="8"/>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="29">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="26">
         <v>168</v>
       </c>
       <c r="B96" s="4" t="s">
@@ -5361,7 +5346,7 @@
       <c r="D96" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E96" s="23" t="s">
+      <c r="E96" s="20" t="s">
         <v>404</v>
       </c>
       <c r="F96" s="8" t="str">
@@ -5370,8 +5355,8 @@
       </c>
       <c r="G96" s="8"/>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="29">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="26">
         <v>169</v>
       </c>
       <c r="B97" s="4" t="s">
@@ -5383,7 +5368,7 @@
       <c r="D97" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="E97" s="23" t="s">
+      <c r="E97" s="20" t="s">
         <v>407</v>
       </c>
       <c r="F97" s="8" t="str">
@@ -5392,8 +5377,8 @@
       </c>
       <c r="G97" s="8"/>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="29">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="26">
         <v>170</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -5405,7 +5390,7 @@
       <c r="D98" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="E98" s="23" t="s">
+      <c r="E98" s="20" t="s">
         <v>410</v>
       </c>
       <c r="F98" s="8" t="str">
@@ -5414,8 +5399,8 @@
       </c>
       <c r="G98" s="8"/>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="29">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="26">
         <v>171</v>
       </c>
       <c r="B99" s="4" t="s">
@@ -5427,7 +5412,7 @@
       <c r="D99" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="E99" s="23" t="s">
+      <c r="E99" s="20" t="s">
         <v>413</v>
       </c>
       <c r="F99" s="8" t="str">
@@ -5436,8 +5421,8 @@
       </c>
       <c r="G99" s="8"/>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="29">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="26">
         <v>172</v>
       </c>
       <c r="B100" s="4" t="s">
@@ -5449,7 +5434,7 @@
       <c r="D100" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="E100" s="23" t="s">
+      <c r="E100" s="20" t="s">
         <v>416</v>
       </c>
       <c r="F100" s="8" t="str">
@@ -5458,8 +5443,8 @@
       </c>
       <c r="G100" s="8"/>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="29">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="26">
         <v>173</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -5471,7 +5456,7 @@
       <c r="D101" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="E101" s="23" t="s">
+      <c r="E101" s="20" t="s">
         <v>419</v>
       </c>
       <c r="F101" s="8" t="str">
@@ -5480,8 +5465,8 @@
       </c>
       <c r="G101" s="8"/>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="29">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="26">
         <v>174</v>
       </c>
       <c r="B102" s="4" t="s">
@@ -5493,7 +5478,7 @@
       <c r="D102" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="E102" s="23" t="s">
+      <c r="E102" s="20" t="s">
         <v>422</v>
       </c>
       <c r="F102" s="8" t="str">
@@ -5502,8 +5487,8 @@
       </c>
       <c r="G102" s="8"/>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="29">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="26">
         <v>175</v>
       </c>
       <c r="B103" s="4" t="s">
@@ -5515,7 +5500,7 @@
       <c r="D103" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="E103" s="23" t="s">
+      <c r="E103" s="20" t="s">
         <v>425</v>
       </c>
       <c r="F103" s="8" t="str">
@@ -5524,8 +5509,8 @@
       </c>
       <c r="G103" s="8"/>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="29">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="26">
         <v>176</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -5537,7 +5522,7 @@
       <c r="D104" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="E104" s="23" t="s">
+      <c r="E104" s="20" t="s">
         <v>428</v>
       </c>
       <c r="F104" s="8" t="str">
@@ -5546,8 +5531,8 @@
       </c>
       <c r="G104" s="8"/>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="29">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="26">
         <v>177</v>
       </c>
       <c r="B105" s="4" t="s">
@@ -5559,7 +5544,7 @@
       <c r="D105" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="E105" s="23" t="s">
+      <c r="E105" s="20" t="s">
         <v>431</v>
       </c>
       <c r="F105" s="8" t="str">
@@ -5569,27 +5554,25 @@
       <c r="G105" s="8"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="29">
-        <v>13</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E106" s="23"/>
+      <c r="A106" s="26">
+        <v>320</v>
+      </c>
+      <c r="B106" s="5"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="29" t="s">
+        <v>793</v>
+      </c>
       <c r="F106" s="8" t="str">
         <f>IF(D106=E106,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G106" s="8"/>
-    </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="29">
+      <c r="G106" s="8" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="26">
         <v>178</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -5601,7 +5584,7 @@
       <c r="D107" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="E107" s="23" t="s">
+      <c r="E107" s="20" t="s">
         <v>434</v>
       </c>
       <c r="F107" s="8" t="str">
@@ -5610,8 +5593,8 @@
       </c>
       <c r="G107" s="8"/>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="29">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="26">
         <v>179</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -5623,7 +5606,7 @@
       <c r="D108" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="E108" s="23" t="s">
+      <c r="E108" s="20" t="s">
         <v>436</v>
       </c>
       <c r="F108" s="8" t="str">
@@ -5632,8 +5615,8 @@
       </c>
       <c r="G108" s="8"/>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="29">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="26">
         <v>180</v>
       </c>
       <c r="B109" s="4" t="s">
@@ -5645,7 +5628,7 @@
       <c r="D109" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="E109" s="23" t="s">
+      <c r="E109" s="20" t="s">
         <v>438</v>
       </c>
       <c r="F109" s="8" t="str">
@@ -5654,8 +5637,8 @@
       </c>
       <c r="G109" s="8"/>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="29">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="26">
         <v>181</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -5667,7 +5650,7 @@
       <c r="D110" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="E110" s="23" t="s">
+      <c r="E110" s="20" t="s">
         <v>441</v>
       </c>
       <c r="F110" s="8" t="str">
@@ -5676,8 +5659,8 @@
       </c>
       <c r="G110" s="8"/>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="29">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="26">
         <v>182</v>
       </c>
       <c r="B111" s="4" t="s">
@@ -5689,7 +5672,7 @@
       <c r="D111" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="E111" s="23" t="s">
+      <c r="E111" s="20" t="s">
         <v>443</v>
       </c>
       <c r="F111" s="8" t="str">
@@ -5698,8 +5681,8 @@
       </c>
       <c r="G111" s="8"/>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="29">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="26">
         <v>183</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -5711,7 +5694,7 @@
       <c r="D112" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="E112" s="23" t="s">
+      <c r="E112" s="20" t="s">
         <v>445</v>
       </c>
       <c r="F112" s="8" t="str">
@@ -5720,8 +5703,8 @@
       </c>
       <c r="G112" s="8"/>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="29">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="26">
         <v>184</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -5733,7 +5716,7 @@
       <c r="D113" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="E113" s="23" t="s">
+      <c r="E113" s="20" t="s">
         <v>448</v>
       </c>
       <c r="F113" s="8" t="str">
@@ -5742,8 +5725,8 @@
       </c>
       <c r="G113" s="8"/>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="29">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="26">
         <v>185</v>
       </c>
       <c r="B114" s="4" t="s">
@@ -5755,7 +5738,7 @@
       <c r="D114" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="E114" s="23" t="s">
+      <c r="E114" s="20" t="s">
         <v>451</v>
       </c>
       <c r="F114" s="8" t="str">
@@ -5764,8 +5747,8 @@
       </c>
       <c r="G114" s="8"/>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="29">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="26">
         <v>186</v>
       </c>
       <c r="B115" s="4" t="s">
@@ -5777,7 +5760,7 @@
       <c r="D115" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="E115" s="23" t="s">
+      <c r="E115" s="20" t="s">
         <v>454</v>
       </c>
       <c r="F115" s="8" t="str">
@@ -5786,8 +5769,8 @@
       </c>
       <c r="G115" s="8"/>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="29">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="26">
         <v>187</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -5799,7 +5782,7 @@
       <c r="D116" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="E116" s="23" t="s">
+      <c r="E116" s="20" t="s">
         <v>457</v>
       </c>
       <c r="F116" s="8" t="str">
@@ -5808,8 +5791,8 @@
       </c>
       <c r="G116" s="8"/>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="29">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="26">
         <v>188</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -5821,7 +5804,7 @@
       <c r="D117" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="E117" s="23" t="s">
+      <c r="E117" s="20" t="s">
         <v>460</v>
       </c>
       <c r="F117" s="8" t="str">
@@ -5831,27 +5814,25 @@
       <c r="G117" s="8"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="29">
-        <v>14</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E118" s="23"/>
+      <c r="A118" s="26">
+        <v>321</v>
+      </c>
+      <c r="B118" s="5"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="29" t="s">
+        <v>794</v>
+      </c>
       <c r="F118" s="8" t="str">
         <f>IF(D118=E118,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G118" s="8"/>
-    </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="29">
+      <c r="G118" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="26">
         <v>189</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -5863,7 +5844,7 @@
       <c r="D119" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="E119" s="23" t="s">
+      <c r="E119" s="20" t="s">
         <v>463</v>
       </c>
       <c r="F119" s="8" t="str">
@@ -5872,8 +5853,8 @@
       </c>
       <c r="G119" s="8"/>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="29">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="26">
         <v>190</v>
       </c>
       <c r="B120" s="4" t="s">
@@ -5885,7 +5866,7 @@
       <c r="D120" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="E120" s="23" t="s">
+      <c r="E120" s="20" t="s">
         <v>466</v>
       </c>
       <c r="F120" s="8" t="str">
@@ -5894,8 +5875,8 @@
       </c>
       <c r="G120" s="8"/>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="29">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="26">
         <v>191</v>
       </c>
       <c r="B121" s="4" t="s">
@@ -5907,7 +5888,7 @@
       <c r="D121" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="E121" s="23" t="s">
+      <c r="E121" s="20" t="s">
         <v>468</v>
       </c>
       <c r="F121" s="8" t="str">
@@ -5917,27 +5898,25 @@
       <c r="G121" s="8"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="29">
-        <v>15</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E122" s="23"/>
+      <c r="A122" s="26">
+        <v>322</v>
+      </c>
+      <c r="B122" s="5"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="29" t="s">
+        <v>595</v>
+      </c>
       <c r="F122" s="8" t="str">
         <f>IF(D122=E122,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G122" s="8"/>
-    </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="29">
+      <c r="G122" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="26">
         <v>192</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -5949,7 +5928,7 @@
       <c r="D123" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="E123" s="23" t="s">
+      <c r="E123" s="20" t="s">
         <v>471</v>
       </c>
       <c r="F123" s="8" t="str">
@@ -5958,8 +5937,8 @@
       </c>
       <c r="G123" s="8"/>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="29">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="26">
         <v>193</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -5971,7 +5950,7 @@
       <c r="D124" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="E124" s="23" t="s">
+      <c r="E124" s="20" t="s">
         <v>474</v>
       </c>
       <c r="F124" s="8" t="str">
@@ -5981,27 +5960,25 @@
       <c r="G124" s="8"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="29">
-        <v>16</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E125" s="23"/>
+      <c r="A125" s="26">
+        <v>323</v>
+      </c>
+      <c r="B125" s="5"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="29" t="s">
+        <v>795</v>
+      </c>
       <c r="F125" s="8" t="str">
         <f>IF(D125=E125,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G125" s="8"/>
-    </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="29">
+      <c r="G125" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="26">
         <v>194</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -6013,7 +5990,7 @@
       <c r="D126" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="E126" s="23" t="s">
+      <c r="E126" s="20" t="s">
         <v>476</v>
       </c>
       <c r="F126" s="8" t="str">
@@ -6022,8 +5999,8 @@
       </c>
       <c r="G126" s="8"/>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="29">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="26">
         <v>195</v>
       </c>
       <c r="B127" s="4" t="s">
@@ -6035,7 +6012,7 @@
       <c r="D127" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E127" s="23" t="s">
+      <c r="E127" s="20" t="s">
         <v>478</v>
       </c>
       <c r="F127" s="8" t="str">
@@ -6044,8 +6021,8 @@
       </c>
       <c r="G127" s="8"/>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="29">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="26">
         <v>197</v>
       </c>
       <c r="B128" s="4" t="s">
@@ -6057,7 +6034,7 @@
       <c r="D128" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="E128" s="23" t="s">
+      <c r="E128" s="20" t="s">
         <v>482</v>
       </c>
       <c r="F128" s="8" t="str">
@@ -6066,8 +6043,8 @@
       </c>
       <c r="G128" s="8"/>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="29">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="26">
         <v>198</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -6079,7 +6056,7 @@
       <c r="D129" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="E129" s="23" t="s">
+      <c r="E129" s="20" t="s">
         <v>485</v>
       </c>
       <c r="F129" s="8" t="str">
@@ -6088,8 +6065,8 @@
       </c>
       <c r="G129" s="8"/>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="29">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="26">
         <v>199</v>
       </c>
       <c r="B130" s="4" t="s">
@@ -6101,7 +6078,7 @@
       <c r="D130" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="E130" s="23" t="s">
+      <c r="E130" s="20" t="s">
         <v>488</v>
       </c>
       <c r="F130" s="8" t="str">
@@ -6110,8 +6087,8 @@
       </c>
       <c r="G130" s="8"/>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="29">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="26">
         <v>200</v>
       </c>
       <c r="B131" s="4" t="s">
@@ -6123,7 +6100,7 @@
       <c r="D131" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="E131" s="23" t="s">
+      <c r="E131" s="20" t="s">
         <v>490</v>
       </c>
       <c r="F131" s="8" t="str">
@@ -6133,27 +6110,25 @@
       <c r="G131" s="8"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="29">
-        <v>17</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" s="23"/>
+      <c r="A132" s="26">
+        <v>324</v>
+      </c>
+      <c r="B132" s="5"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="F132" s="8" t="str">
         <f>IF(D132=E132,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G132" s="8"/>
-    </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="29">
+      <c r="G132" s="8" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="26">
         <v>201</v>
       </c>
       <c r="B133" s="4" t="s">
@@ -6165,7 +6140,7 @@
       <c r="D133" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="E133" s="23" t="s">
+      <c r="E133" s="20" t="s">
         <v>493</v>
       </c>
       <c r="F133" s="8" t="str">
@@ -6174,8 +6149,8 @@
       </c>
       <c r="G133" s="8"/>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="29">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="26">
         <v>202</v>
       </c>
       <c r="B134" s="4" t="s">
@@ -6187,7 +6162,7 @@
       <c r="D134" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="E134" s="23" t="s">
+      <c r="E134" s="20" t="s">
         <v>495</v>
       </c>
       <c r="F134" s="8" t="str">
@@ -6196,8 +6171,8 @@
       </c>
       <c r="G134" s="8"/>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="29">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="26">
         <v>203</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -6209,7 +6184,7 @@
       <c r="D135" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="E135" s="23" t="s">
+      <c r="E135" s="20" t="s">
         <v>498</v>
       </c>
       <c r="F135" s="8" t="str">
@@ -6218,8 +6193,8 @@
       </c>
       <c r="G135" s="8"/>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="29">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="26">
         <v>204</v>
       </c>
       <c r="B136" s="4" t="s">
@@ -6231,7 +6206,7 @@
       <c r="D136" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="E136" s="23" t="s">
+      <c r="E136" s="20" t="s">
         <v>500</v>
       </c>
       <c r="F136" s="8" t="str">
@@ -6241,27 +6216,25 @@
       <c r="G136" s="8"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="29">
-        <v>18</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E137" s="23"/>
+      <c r="A137" s="26">
+        <v>325</v>
+      </c>
+      <c r="B137" s="5"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="29" t="s">
+        <v>796</v>
+      </c>
       <c r="F137" s="8" t="str">
         <f>IF(D137=E137,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G137" s="8"/>
-    </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="29">
+      <c r="G137" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="26">
         <v>205</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -6273,7 +6246,7 @@
       <c r="D138" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="E138" s="23" t="s">
+      <c r="E138" s="20" t="s">
         <v>502</v>
       </c>
       <c r="F138" s="8" t="str">
@@ -6282,8 +6255,8 @@
       </c>
       <c r="G138" s="8"/>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="29">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="26">
         <v>206</v>
       </c>
       <c r="B139" s="4" t="s">
@@ -6295,7 +6268,7 @@
       <c r="D139" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="E139" s="23" t="s">
+      <c r="E139" s="20" t="s">
         <v>505</v>
       </c>
       <c r="F139" s="8" t="str">
@@ -6304,8 +6277,8 @@
       </c>
       <c r="G139" s="8"/>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="29">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="26">
         <v>207</v>
       </c>
       <c r="B140" s="4" t="s">
@@ -6317,7 +6290,7 @@
       <c r="D140" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="E140" s="23" t="s">
+      <c r="E140" s="20" t="s">
         <v>508</v>
       </c>
       <c r="F140" s="8" t="str">
@@ -6326,8 +6299,8 @@
       </c>
       <c r="G140" s="8"/>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="29">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="26">
         <v>208</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -6339,7 +6312,7 @@
       <c r="D141" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="E141" s="23" t="s">
+      <c r="E141" s="20" t="s">
         <v>511</v>
       </c>
       <c r="F141" s="8" t="str">
@@ -6348,8 +6321,8 @@
       </c>
       <c r="G141" s="8"/>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="29">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="26">
         <v>209</v>
       </c>
       <c r="B142" s="4" t="s">
@@ -6361,7 +6334,7 @@
       <c r="D142" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="E142" s="23" t="s">
+      <c r="E142" s="20" t="s">
         <v>514</v>
       </c>
       <c r="F142" s="8" t="str">
@@ -6371,27 +6344,25 @@
       <c r="G142" s="8"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="29">
-        <v>19</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E143" s="23"/>
+      <c r="A143" s="26">
+        <v>326</v>
+      </c>
+      <c r="B143" s="5"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="29" t="s">
+        <v>797</v>
+      </c>
       <c r="F143" s="8" t="str">
         <f>IF(D143=E143,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G143" s="8"/>
-    </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="29">
+      <c r="G143" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="26">
         <v>210</v>
       </c>
       <c r="B144" s="4" t="s">
@@ -6403,7 +6374,7 @@
       <c r="D144" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="E144" s="23" t="s">
+      <c r="E144" s="20" t="s">
         <v>517</v>
       </c>
       <c r="F144" s="8" t="str">
@@ -6412,8 +6383,8 @@
       </c>
       <c r="G144" s="8"/>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="29">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="26">
         <v>211</v>
       </c>
       <c r="B145" s="4" t="s">
@@ -6425,7 +6396,7 @@
       <c r="D145" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="E145" s="23" t="s">
+      <c r="E145" s="20" t="s">
         <v>520</v>
       </c>
       <c r="F145" s="8" t="str">
@@ -6434,8 +6405,8 @@
       </c>
       <c r="G145" s="8"/>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="29">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="26">
         <v>212</v>
       </c>
       <c r="B146" s="4" t="s">
@@ -6447,7 +6418,7 @@
       <c r="D146" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E146" s="23" t="s">
+      <c r="E146" s="20" t="s">
         <v>523</v>
       </c>
       <c r="F146" s="8" t="str">
@@ -6456,8 +6427,8 @@
       </c>
       <c r="G146" s="8"/>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="29">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="26">
         <v>213</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -6469,7 +6440,7 @@
       <c r="D147" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="E147" s="23" t="s">
+      <c r="E147" s="20" t="s">
         <v>525</v>
       </c>
       <c r="F147" s="8" t="str">
@@ -6478,8 +6449,8 @@
       </c>
       <c r="G147" s="8"/>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="29">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="26">
         <v>214</v>
       </c>
       <c r="B148" s="4" t="s">
@@ -6491,7 +6462,7 @@
       <c r="D148" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="E148" s="23" t="s">
+      <c r="E148" s="20" t="s">
         <v>527</v>
       </c>
       <c r="F148" s="8" t="str">
@@ -6500,8 +6471,8 @@
       </c>
       <c r="G148" s="8"/>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="29">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="26">
         <v>215</v>
       </c>
       <c r="B149" s="4" t="s">
@@ -6513,7 +6484,7 @@
       <c r="D149" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="E149" s="23" t="s">
+      <c r="E149" s="20" t="s">
         <v>529</v>
       </c>
       <c r="F149" s="8" t="str">
@@ -6522,8 +6493,8 @@
       </c>
       <c r="G149" s="8"/>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="29">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="26">
         <v>216</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -6535,7 +6506,7 @@
       <c r="D150" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="E150" s="23" t="s">
+      <c r="E150" s="20" t="s">
         <v>532</v>
       </c>
       <c r="F150" s="8" t="str">
@@ -6544,8 +6515,8 @@
       </c>
       <c r="G150" s="8"/>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="29">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="26">
         <v>217</v>
       </c>
       <c r="B151" s="4" t="s">
@@ -6557,7 +6528,7 @@
       <c r="D151" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="E151" s="23" t="s">
+      <c r="E151" s="20" t="s">
         <v>535</v>
       </c>
       <c r="F151" s="8" t="str">
@@ -6566,8 +6537,8 @@
       </c>
       <c r="G151" s="8"/>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="29">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="26">
         <v>218</v>
       </c>
       <c r="B152" s="4" t="s">
@@ -6579,7 +6550,7 @@
       <c r="D152" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E152" s="23" t="s">
+      <c r="E152" s="20" t="s">
         <v>537</v>
       </c>
       <c r="F152" s="8" t="str">
@@ -6589,27 +6560,25 @@
       <c r="G152" s="8"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="29">
-        <v>20</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E153" s="23"/>
+      <c r="A153" s="26">
+        <v>327</v>
+      </c>
+      <c r="B153" s="5"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="29" t="s">
+        <v>798</v>
+      </c>
       <c r="F153" s="8" t="str">
         <f>IF(D153=E153,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G153" s="8"/>
-    </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="29">
+      <c r="G153" s="8" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="26">
         <v>219</v>
       </c>
       <c r="B154" s="4" t="s">
@@ -6621,7 +6590,7 @@
       <c r="D154" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="E154" s="23" t="s">
+      <c r="E154" s="20" t="s">
         <v>540</v>
       </c>
       <c r="F154" s="8" t="str">
@@ -6630,8 +6599,8 @@
       </c>
       <c r="G154" s="8"/>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="29">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="26">
         <v>220</v>
       </c>
       <c r="B155" s="4" t="s">
@@ -6643,7 +6612,7 @@
       <c r="D155" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="E155" s="23" t="s">
+      <c r="E155" s="20" t="s">
         <v>543</v>
       </c>
       <c r="F155" s="8" t="str">
@@ -6652,8 +6621,8 @@
       </c>
       <c r="G155" s="8"/>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="29">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="26">
         <v>221</v>
       </c>
       <c r="B156" s="4" t="s">
@@ -6665,7 +6634,7 @@
       <c r="D156" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="E156" s="23" t="s">
+      <c r="E156" s="20" t="s">
         <v>546</v>
       </c>
       <c r="F156" s="8" t="str">
@@ -6674,8 +6643,8 @@
       </c>
       <c r="G156" s="8"/>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="29">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="26">
         <v>222</v>
       </c>
       <c r="B157" s="4" t="s">
@@ -6687,7 +6656,7 @@
       <c r="D157" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="E157" s="23" t="s">
+      <c r="E157" s="20" t="s">
         <v>549</v>
       </c>
       <c r="F157" s="8" t="str">
@@ -6696,8 +6665,8 @@
       </c>
       <c r="G157" s="8"/>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="29">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="26">
         <v>223</v>
       </c>
       <c r="B158" s="4" t="s">
@@ -6709,7 +6678,7 @@
       <c r="D158" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="E158" s="23" t="s">
+      <c r="E158" s="20" t="s">
         <v>552</v>
       </c>
       <c r="F158" s="8" t="str">
@@ -6719,27 +6688,25 @@
       <c r="G158" s="8"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="29">
-        <v>21</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E159" s="23"/>
+      <c r="A159" s="26">
+        <v>328</v>
+      </c>
+      <c r="B159" s="5"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="29" t="s">
+        <v>799</v>
+      </c>
       <c r="F159" s="8" t="str">
         <f>IF(D159=E159,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G159" s="8"/>
-    </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="29">
+      <c r="G159" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="26">
         <v>224</v>
       </c>
       <c r="B160" s="4" t="s">
@@ -6751,7 +6718,7 @@
       <c r="D160" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="E160" s="23" t="s">
+      <c r="E160" s="20" t="s">
         <v>555</v>
       </c>
       <c r="F160" s="8" t="str">
@@ -6760,8 +6727,8 @@
       </c>
       <c r="G160" s="8"/>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="29">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="26">
         <v>225</v>
       </c>
       <c r="B161" s="4" t="s">
@@ -6773,7 +6740,7 @@
       <c r="D161" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="E161" s="23" t="s">
+      <c r="E161" s="20" t="s">
         <v>558</v>
       </c>
       <c r="F161" s="8" t="str">
@@ -6782,8 +6749,8 @@
       </c>
       <c r="G161" s="8"/>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="29">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="26">
         <v>226</v>
       </c>
       <c r="B162" s="4" t="s">
@@ -6795,7 +6762,7 @@
       <c r="D162" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E162" s="23" t="s">
+      <c r="E162" s="20" t="s">
         <v>113</v>
       </c>
       <c r="F162" s="8" t="str">
@@ -6804,8 +6771,8 @@
       </c>
       <c r="G162" s="8"/>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="29">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="26">
         <v>227</v>
       </c>
       <c r="B163" s="4" t="s">
@@ -6817,7 +6784,7 @@
       <c r="D163" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="E163" s="23" t="s">
+      <c r="E163" s="20" t="s">
         <v>562</v>
       </c>
       <c r="F163" s="8" t="str">
@@ -6826,8 +6793,8 @@
       </c>
       <c r="G163" s="8"/>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="29">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="26">
         <v>228</v>
       </c>
       <c r="B164" s="4" t="s">
@@ -6839,7 +6806,7 @@
       <c r="D164" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="E164" s="23" t="s">
+      <c r="E164" s="20" t="s">
         <v>564</v>
       </c>
       <c r="F164" s="8" t="str">
@@ -6848,8 +6815,8 @@
       </c>
       <c r="G164" s="8"/>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="29">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="26">
         <v>229</v>
       </c>
       <c r="B165" s="4" t="s">
@@ -6861,7 +6828,7 @@
       <c r="D165" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="E165" s="23" t="s">
+      <c r="E165" s="20" t="s">
         <v>566</v>
       </c>
       <c r="F165" s="8" t="str">
@@ -6870,8 +6837,8 @@
       </c>
       <c r="G165" s="8"/>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="29">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="26">
         <v>230</v>
       </c>
       <c r="B166" s="4" t="s">
@@ -6883,7 +6850,7 @@
       <c r="D166" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="E166" s="23" t="s">
+      <c r="E166" s="20" t="s">
         <v>569</v>
       </c>
       <c r="F166" s="8" t="str">
@@ -6892,8 +6859,8 @@
       </c>
       <c r="G166" s="8"/>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="29">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="26">
         <v>231</v>
       </c>
       <c r="B167" s="4" t="s">
@@ -6905,7 +6872,7 @@
       <c r="D167" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="E167" s="23" t="s">
+      <c r="E167" s="20" t="s">
         <v>571</v>
       </c>
       <c r="F167" s="8" t="str">
@@ -6914,8 +6881,8 @@
       </c>
       <c r="G167" s="8"/>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="29">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="26">
         <v>232</v>
       </c>
       <c r="B168" s="4" t="s">
@@ -6927,7 +6894,7 @@
       <c r="D168" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="E168" s="23" t="s">
+      <c r="E168" s="20" t="s">
         <v>573</v>
       </c>
       <c r="F168" s="8" t="str">
@@ -6936,8 +6903,8 @@
       </c>
       <c r="G168" s="8"/>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="29">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="26">
         <v>233</v>
       </c>
       <c r="B169" s="4" t="s">
@@ -6949,7 +6916,7 @@
       <c r="D169" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="E169" s="23" t="s">
+      <c r="E169" s="20" t="s">
         <v>576</v>
       </c>
       <c r="F169" s="8" t="str">
@@ -6958,8 +6925,8 @@
       </c>
       <c r="G169" s="8"/>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="29">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="26">
         <v>234</v>
       </c>
       <c r="B170" s="4" t="s">
@@ -6971,7 +6938,7 @@
       <c r="D170" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="E170" s="23" t="s">
+      <c r="E170" s="20" t="s">
         <v>579</v>
       </c>
       <c r="F170" s="8" t="str">
@@ -6980,8 +6947,8 @@
       </c>
       <c r="G170" s="8"/>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="29">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="26">
         <v>235</v>
       </c>
       <c r="B171" s="4" t="s">
@@ -6993,7 +6960,7 @@
       <c r="D171" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="E171" s="23" t="s">
+      <c r="E171" s="20" t="s">
         <v>582</v>
       </c>
       <c r="F171" s="8" t="str">
@@ -7002,8 +6969,8 @@
       </c>
       <c r="G171" s="8"/>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="29">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="26">
         <v>236</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -7015,7 +6982,7 @@
       <c r="D172" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="E172" s="23" t="s">
+      <c r="E172" s="20" t="s">
         <v>585</v>
       </c>
       <c r="F172" s="8" t="str">
@@ -7024,8 +6991,8 @@
       </c>
       <c r="G172" s="8"/>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="29">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="26">
         <v>237</v>
       </c>
       <c r="B173" s="4" t="s">
@@ -7037,7 +7004,7 @@
       <c r="D173" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="E173" s="23" t="s">
+      <c r="E173" s="20" t="s">
         <v>587</v>
       </c>
       <c r="F173" s="8" t="str">
@@ -7046,8 +7013,8 @@
       </c>
       <c r="G173" s="8"/>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="29">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="26">
         <v>238</v>
       </c>
       <c r="B174" s="4" t="s">
@@ -7059,7 +7026,7 @@
       <c r="D174" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="E174" s="23" t="s">
+      <c r="E174" s="20" t="s">
         <v>589</v>
       </c>
       <c r="F174" s="8" t="str">
@@ -7069,27 +7036,25 @@
       <c r="G174" s="8"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="29">
-        <v>22</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E175" s="23"/>
+      <c r="A175" s="26">
+        <v>329</v>
+      </c>
+      <c r="B175" s="5"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="29" t="s">
+        <v>131</v>
+      </c>
       <c r="F175" s="8" t="str">
         <f>IF(D175=E175,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G175" s="8"/>
-    </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="29">
+      <c r="G175" s="8" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="26">
         <v>240</v>
       </c>
       <c r="B176" s="4" t="s">
@@ -7101,7 +7066,7 @@
       <c r="D176" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="E176" s="23" t="s">
+      <c r="E176" s="20" t="s">
         <v>593</v>
       </c>
       <c r="F176" s="8" t="str">
@@ -7110,8 +7075,8 @@
       </c>
       <c r="G176" s="8"/>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="29">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="26">
         <v>241</v>
       </c>
       <c r="B177" s="4" t="s">
@@ -7123,7 +7088,7 @@
       <c r="D177" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="E177" s="23" t="s">
+      <c r="E177" s="20" t="s">
         <v>596</v>
       </c>
       <c r="F177" s="8" t="str">
@@ -7132,8 +7097,8 @@
       </c>
       <c r="G177" s="8"/>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="29">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="26">
         <v>242</v>
       </c>
       <c r="B178" s="4" t="s">
@@ -7145,7 +7110,7 @@
       <c r="D178" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E178" s="23" t="s">
+      <c r="E178" s="20" t="s">
         <v>599</v>
       </c>
       <c r="F178" s="8" t="str">
@@ -7154,8 +7119,8 @@
       </c>
       <c r="G178" s="8"/>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="29">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="26">
         <v>243</v>
       </c>
       <c r="B179" s="4" t="s">
@@ -7167,7 +7132,7 @@
       <c r="D179" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="E179" s="23" t="s">
+      <c r="E179" s="20" t="s">
         <v>602</v>
       </c>
       <c r="F179" s="8" t="str">
@@ -7176,8 +7141,8 @@
       </c>
       <c r="G179" s="8"/>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="29">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="26">
         <v>244</v>
       </c>
       <c r="B180" s="4" t="s">
@@ -7189,7 +7154,7 @@
       <c r="D180" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="E180" s="23" t="s">
+      <c r="E180" s="20" t="s">
         <v>605</v>
       </c>
       <c r="F180" s="8" t="str">
@@ -7199,29 +7164,25 @@
       <c r="G180" s="8"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="29">
-        <v>23</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C181" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E181" s="23"/>
+      <c r="A181" s="26">
+        <v>330</v>
+      </c>
+      <c r="B181" s="5"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="29" t="s">
+        <v>800</v>
+      </c>
       <c r="F181" s="8" t="str">
         <f>IF(D181=E181,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="29">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="26">
         <v>245</v>
       </c>
       <c r="B182" s="4" t="s">
@@ -7233,7 +7194,7 @@
       <c r="D182" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="E182" s="23" t="s">
+      <c r="E182" s="20" t="s">
         <v>608</v>
       </c>
       <c r="F182" s="8" t="str">
@@ -7242,8 +7203,8 @@
       </c>
       <c r="G182" s="8"/>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="29">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="26">
         <v>246</v>
       </c>
       <c r="B183" s="4" t="s">
@@ -7255,7 +7216,7 @@
       <c r="D183" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="E183" s="23" t="s">
+      <c r="E183" s="20" t="s">
         <v>610</v>
       </c>
       <c r="F183" s="8" t="str">
@@ -7264,8 +7225,8 @@
       </c>
       <c r="G183" s="8"/>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="29">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="26">
         <v>247</v>
       </c>
       <c r="B184" s="4" t="s">
@@ -7277,7 +7238,7 @@
       <c r="D184" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="E184" s="23" t="s">
+      <c r="E184" s="20" t="s">
         <v>612</v>
       </c>
       <c r="F184" s="8" t="str">
@@ -7286,8 +7247,8 @@
       </c>
       <c r="G184" s="8"/>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="29">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="26">
         <v>248</v>
       </c>
       <c r="B185" s="4" t="s">
@@ -7299,7 +7260,7 @@
       <c r="D185" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="E185" s="23" t="s">
+      <c r="E185" s="20" t="s">
         <v>614</v>
       </c>
       <c r="F185" s="8" t="str">
@@ -7308,8 +7269,8 @@
       </c>
       <c r="G185" s="8"/>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="29">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="26">
         <v>249</v>
       </c>
       <c r="B186" s="4" t="s">
@@ -7321,7 +7282,7 @@
       <c r="D186" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="E186" s="23" t="s">
+      <c r="E186" s="20" t="s">
         <v>617</v>
       </c>
       <c r="F186" s="8" t="str">
@@ -7330,8 +7291,8 @@
       </c>
       <c r="G186" s="8"/>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="29">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="26">
         <v>250</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -7343,7 +7304,7 @@
       <c r="D187" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="E187" s="23" t="s">
+      <c r="E187" s="20" t="s">
         <v>619</v>
       </c>
       <c r="F187" s="8" t="str">
@@ -7352,8 +7313,8 @@
       </c>
       <c r="G187" s="8"/>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="29">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="26">
         <v>251</v>
       </c>
       <c r="B188" s="4" t="s">
@@ -7365,7 +7326,7 @@
       <c r="D188" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="E188" s="23" t="s">
+      <c r="E188" s="20" t="s">
         <v>622</v>
       </c>
       <c r="F188" s="8" t="str">
@@ -7374,8 +7335,8 @@
       </c>
       <c r="G188" s="8"/>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="29">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="26">
         <v>252</v>
       </c>
       <c r="B189" s="4" t="s">
@@ -7387,7 +7348,7 @@
       <c r="D189" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="E189" s="23" t="s">
+      <c r="E189" s="20" t="s">
         <v>625</v>
       </c>
       <c r="F189" s="8" t="str">
@@ -7396,8 +7357,8 @@
       </c>
       <c r="G189" s="8"/>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="29">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="26">
         <v>253</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -7409,7 +7370,7 @@
       <c r="D190" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="E190" s="23" t="s">
+      <c r="E190" s="20" t="s">
         <v>628</v>
       </c>
       <c r="F190" s="8" t="str">
@@ -7418,8 +7379,8 @@
       </c>
       <c r="G190" s="8"/>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="29">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="26">
         <v>254</v>
       </c>
       <c r="B191" s="4" t="s">
@@ -7431,7 +7392,7 @@
       <c r="D191" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="E191" s="23" t="s">
+      <c r="E191" s="20" t="s">
         <v>631</v>
       </c>
       <c r="F191" s="8" t="str">
@@ -7440,8 +7401,8 @@
       </c>
       <c r="G191" s="8"/>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="29">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="26">
         <v>255</v>
       </c>
       <c r="B192" s="4" t="s">
@@ -7453,7 +7414,7 @@
       <c r="D192" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="E192" s="23" t="s">
+      <c r="E192" s="20" t="s">
         <v>634</v>
       </c>
       <c r="F192" s="8" t="str">
@@ -7462,8 +7423,8 @@
       </c>
       <c r="G192" s="8"/>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="29">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="26">
         <v>256</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -7475,7 +7436,7 @@
       <c r="D193" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="E193" s="23" t="s">
+      <c r="E193" s="20" t="s">
         <v>637</v>
       </c>
       <c r="F193" s="8" t="str">
@@ -7484,8 +7445,8 @@
       </c>
       <c r="G193" s="8"/>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="29">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="26">
         <v>257</v>
       </c>
       <c r="B194" s="4" t="s">
@@ -7497,7 +7458,7 @@
       <c r="D194" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="E194" s="23" t="s">
+      <c r="E194" s="20" t="s">
         <v>640</v>
       </c>
       <c r="F194" s="8" t="str">
@@ -7506,8 +7467,8 @@
       </c>
       <c r="G194" s="8"/>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="29">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="26">
         <v>258</v>
       </c>
       <c r="B195" s="4" t="s">
@@ -7519,7 +7480,7 @@
       <c r="D195" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="E195" s="23" t="s">
+      <c r="E195" s="20" t="s">
         <v>643</v>
       </c>
       <c r="F195" s="8" t="str">
@@ -7528,8 +7489,8 @@
       </c>
       <c r="G195" s="8"/>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="29">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="26">
         <v>259</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -7541,7 +7502,7 @@
       <c r="D196" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="E196" s="23" t="s">
+      <c r="E196" s="20" t="s">
         <v>646</v>
       </c>
       <c r="F196" s="8" t="str">
@@ -7550,8 +7511,8 @@
       </c>
       <c r="G196" s="8"/>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="29">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="26">
         <v>260</v>
       </c>
       <c r="B197" s="4" t="s">
@@ -7563,7 +7524,7 @@
       <c r="D197" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="E197" s="23" t="s">
+      <c r="E197" s="20" t="s">
         <v>649</v>
       </c>
       <c r="F197" s="8" t="str">
@@ -7573,27 +7534,25 @@
       <c r="G197" s="8"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="29">
-        <v>24</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E198" s="23"/>
+      <c r="A198" s="26">
+        <v>331</v>
+      </c>
+      <c r="B198" s="5"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="29" t="s">
+        <v>801</v>
+      </c>
       <c r="F198" s="8" t="str">
         <f>IF(D198=E198,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G198" s="8"/>
-    </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="29">
+      <c r="G198" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="26">
         <v>261</v>
       </c>
       <c r="B199" s="4" t="s">
@@ -7605,7 +7564,7 @@
       <c r="D199" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="E199" s="23" t="s">
+      <c r="E199" s="20" t="s">
         <v>652</v>
       </c>
       <c r="F199" s="8" t="str">
@@ -7614,8 +7573,8 @@
       </c>
       <c r="G199" s="8"/>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="29">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="26">
         <v>262</v>
       </c>
       <c r="B200" s="4" t="s">
@@ -7627,7 +7586,7 @@
       <c r="D200" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="E200" s="23" t="s">
+      <c r="E200" s="20" t="s">
         <v>654</v>
       </c>
       <c r="F200" s="8" t="str">
@@ -7636,8 +7595,8 @@
       </c>
       <c r="G200" s="8"/>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="29">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="26">
         <v>263</v>
       </c>
       <c r="B201" s="4" t="s">
@@ -7649,7 +7608,7 @@
       <c r="D201" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="E201" s="23" t="s">
+      <c r="E201" s="20" t="s">
         <v>656</v>
       </c>
       <c r="F201" s="8" t="str">
@@ -7658,8 +7617,8 @@
       </c>
       <c r="G201" s="8"/>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="29">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="26">
         <v>264</v>
       </c>
       <c r="B202" s="4" t="s">
@@ -7671,7 +7630,7 @@
       <c r="D202" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="E202" s="23" t="s">
+      <c r="E202" s="20" t="s">
         <v>658</v>
       </c>
       <c r="F202" s="8" t="str">
@@ -7680,8 +7639,8 @@
       </c>
       <c r="G202" s="8"/>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="29">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="26">
         <v>265</v>
       </c>
       <c r="B203" s="4" t="s">
@@ -7693,7 +7652,7 @@
       <c r="D203" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="E203" s="23" t="s">
+      <c r="E203" s="20" t="s">
         <v>661</v>
       </c>
       <c r="F203" s="8" t="str">
@@ -7702,8 +7661,8 @@
       </c>
       <c r="G203" s="8"/>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="29">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="26">
         <v>266</v>
       </c>
       <c r="B204" s="4" t="s">
@@ -7715,7 +7674,7 @@
       <c r="D204" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="E204" s="23" t="s">
+      <c r="E204" s="20" t="s">
         <v>664</v>
       </c>
       <c r="F204" s="8" t="str">
@@ -7724,8 +7683,8 @@
       </c>
       <c r="G204" s="8"/>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="29">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="26">
         <v>267</v>
       </c>
       <c r="B205" s="4" t="s">
@@ -7737,7 +7696,7 @@
       <c r="D205" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="E205" s="23" t="s">
+      <c r="E205" s="20" t="s">
         <v>667</v>
       </c>
       <c r="F205" s="8" t="str">
@@ -7746,8 +7705,8 @@
       </c>
       <c r="G205" s="8"/>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="29">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="26">
         <v>268</v>
       </c>
       <c r="B206" s="4" t="s">
@@ -7759,7 +7718,7 @@
       <c r="D206" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="E206" s="23" t="s">
+      <c r="E206" s="20" t="s">
         <v>669</v>
       </c>
       <c r="F206" s="8" t="str">
@@ -7768,8 +7727,8 @@
       </c>
       <c r="G206" s="8"/>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="29">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="26">
         <v>269</v>
       </c>
       <c r="B207" s="4" t="s">
@@ -7781,7 +7740,7 @@
       <c r="D207" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="E207" s="23" t="s">
+      <c r="E207" s="20" t="s">
         <v>672</v>
       </c>
       <c r="F207" s="8" t="str">
@@ -7790,8 +7749,8 @@
       </c>
       <c r="G207" s="8"/>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="29">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="26">
         <v>270</v>
       </c>
       <c r="B208" s="4" t="s">
@@ -7803,7 +7762,7 @@
       <c r="D208" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="E208" s="23" t="s">
+      <c r="E208" s="20" t="s">
         <v>674</v>
       </c>
       <c r="F208" s="8" t="str">
@@ -7812,8 +7771,8 @@
       </c>
       <c r="G208" s="8"/>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="29">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="26">
         <v>272</v>
       </c>
       <c r="B209" s="4" t="s">
@@ -7825,7 +7784,7 @@
       <c r="D209" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="E209" s="23" t="s">
+      <c r="E209" s="20" t="s">
         <v>679</v>
       </c>
       <c r="F209" s="8" t="str">
@@ -7834,8 +7793,8 @@
       </c>
       <c r="G209" s="8"/>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="29">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="26">
         <v>273</v>
       </c>
       <c r="B210" s="4" t="s">
@@ -7847,7 +7806,7 @@
       <c r="D210" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="E210" s="23" t="s">
+      <c r="E210" s="20" t="s">
         <v>681</v>
       </c>
       <c r="F210" s="8" t="str">
@@ -7856,8 +7815,8 @@
       </c>
       <c r="G210" s="8"/>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="29">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="26">
         <v>274</v>
       </c>
       <c r="B211" s="4" t="s">
@@ -7869,7 +7828,7 @@
       <c r="D211" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="E211" s="23" t="s">
+      <c r="E211" s="20" t="s">
         <v>684</v>
       </c>
       <c r="F211" s="8" t="str">
@@ -7878,8 +7837,8 @@
       </c>
       <c r="G211" s="8"/>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="29">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="26">
         <v>275</v>
       </c>
       <c r="B212" s="4" t="s">
@@ -7891,7 +7850,7 @@
       <c r="D212" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="E212" s="23" t="s">
+      <c r="E212" s="20" t="s">
         <v>687</v>
       </c>
       <c r="F212" s="8" t="str">
@@ -7900,8 +7859,8 @@
       </c>
       <c r="G212" s="8"/>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="29">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="26">
         <v>276</v>
       </c>
       <c r="B213" s="4" t="s">
@@ -7913,7 +7872,7 @@
       <c r="D213" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="E213" s="23" t="s">
+      <c r="E213" s="20" t="s">
         <v>689</v>
       </c>
       <c r="F213" s="8" t="str">
@@ -7922,8 +7881,8 @@
       </c>
       <c r="G213" s="8"/>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="29">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="26">
         <v>277</v>
       </c>
       <c r="B214" s="4" t="s">
@@ -7935,7 +7894,7 @@
       <c r="D214" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="E214" s="23" t="s">
+      <c r="E214" s="20" t="s">
         <v>692</v>
       </c>
       <c r="F214" s="8" t="str">
@@ -7944,8 +7903,8 @@
       </c>
       <c r="G214" s="8"/>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="29">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="26">
         <v>278</v>
       </c>
       <c r="B215" s="4" t="s">
@@ -7957,7 +7916,7 @@
       <c r="D215" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="E215" s="23" t="s">
+      <c r="E215" s="20" t="s">
         <v>695</v>
       </c>
       <c r="F215" s="8" t="str">
@@ -7966,8 +7925,8 @@
       </c>
       <c r="G215" s="8"/>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="29">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="26">
         <v>279</v>
       </c>
       <c r="B216" s="4" t="s">
@@ -7979,7 +7938,7 @@
       <c r="D216" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="E216" s="23" t="s">
+      <c r="E216" s="20" t="s">
         <v>698</v>
       </c>
       <c r="F216" s="8" t="str">
@@ -7988,8 +7947,8 @@
       </c>
       <c r="G216" s="8"/>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="29">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="26">
         <v>280</v>
       </c>
       <c r="B217" s="4" t="s">
@@ -8001,7 +7960,7 @@
       <c r="D217" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="E217" s="23" t="s">
+      <c r="E217" s="20" t="s">
         <v>700</v>
       </c>
       <c r="F217" s="8" t="str">
@@ -8010,8 +7969,8 @@
       </c>
       <c r="G217" s="8"/>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="29">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="26">
         <v>281</v>
       </c>
       <c r="B218" s="4" t="s">
@@ -8023,7 +7982,7 @@
       <c r="D218" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="E218" s="23" t="s">
+      <c r="E218" s="20" t="s">
         <v>702</v>
       </c>
       <c r="F218" s="8" t="str">
@@ -8032,8 +7991,8 @@
       </c>
       <c r="G218" s="8"/>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="29">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="26">
         <v>282</v>
       </c>
       <c r="B219" s="4" t="s">
@@ -8045,7 +8004,7 @@
       <c r="D219" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="E219" s="23" t="s">
+      <c r="E219" s="20" t="s">
         <v>705</v>
       </c>
       <c r="F219" s="8" t="str">
@@ -8054,8 +8013,8 @@
       </c>
       <c r="G219" s="8"/>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="29">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="26">
         <v>283</v>
       </c>
       <c r="B220" s="4" t="s">
@@ -8067,7 +8026,7 @@
       <c r="D220" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="E220" s="23" t="s">
+      <c r="E220" s="20" t="s">
         <v>707</v>
       </c>
       <c r="F220" s="8" t="str">
@@ -8076,8 +8035,8 @@
       </c>
       <c r="G220" s="8"/>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="29">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="26">
         <v>284</v>
       </c>
       <c r="B221" s="4" t="s">
@@ -8089,7 +8048,7 @@
       <c r="D221" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="E221" s="23" t="s">
+      <c r="E221" s="20" t="s">
         <v>710</v>
       </c>
       <c r="F221" s="8" t="str">
@@ -8098,8 +8057,8 @@
       </c>
       <c r="G221" s="8"/>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="29">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="26">
         <v>285</v>
       </c>
       <c r="B222" s="4" t="s">
@@ -8111,7 +8070,7 @@
       <c r="D222" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="E222" s="23" t="s">
+      <c r="E222" s="20" t="s">
         <v>713</v>
       </c>
       <c r="F222" s="8" t="str">
@@ -8120,8 +8079,8 @@
       </c>
       <c r="G222" s="8"/>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="29">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="26">
         <v>286</v>
       </c>
       <c r="B223" s="4" t="s">
@@ -8133,7 +8092,7 @@
       <c r="D223" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="E223" s="23" t="s">
+      <c r="E223" s="20" t="s">
         <v>716</v>
       </c>
       <c r="F223" s="8" t="str">
@@ -8142,8 +8101,8 @@
       </c>
       <c r="G223" s="8"/>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="29">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="26">
         <v>287</v>
       </c>
       <c r="B224" s="4" t="s">
@@ -8155,7 +8114,7 @@
       <c r="D224" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="E224" s="23" t="s">
+      <c r="E224" s="20" t="s">
         <v>719</v>
       </c>
       <c r="F224" s="8" t="str">
@@ -8164,8 +8123,8 @@
       </c>
       <c r="G224" s="8"/>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="29">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="26">
         <v>288</v>
       </c>
       <c r="B225" s="4" t="s">
@@ -8177,7 +8136,7 @@
       <c r="D225" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="E225" s="23" t="s">
+      <c r="E225" s="20" t="s">
         <v>721</v>
       </c>
       <c r="F225" s="8" t="str">
@@ -8186,8 +8145,8 @@
       </c>
       <c r="G225" s="8"/>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="29">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="26">
         <v>289</v>
       </c>
       <c r="B226" s="4" t="s">
@@ -8199,7 +8158,7 @@
       <c r="D226" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="E226" s="23" t="s">
+      <c r="E226" s="20" t="s">
         <v>723</v>
       </c>
       <c r="F226" s="8" t="str">
@@ -8208,8 +8167,8 @@
       </c>
       <c r="G226" s="8"/>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="29">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="26">
         <v>290</v>
       </c>
       <c r="B227" s="4" t="s">
@@ -8221,7 +8180,7 @@
       <c r="D227" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="E227" s="23" t="s">
+      <c r="E227" s="20" t="s">
         <v>725</v>
       </c>
       <c r="F227" s="8" t="str">
@@ -8230,8 +8189,8 @@
       </c>
       <c r="G227" s="8"/>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="29">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="26">
         <v>291</v>
       </c>
       <c r="B228" s="4" t="s">
@@ -8243,7 +8202,7 @@
       <c r="D228" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="E228" s="23" t="s">
+      <c r="E228" s="20" t="s">
         <v>728</v>
       </c>
       <c r="F228" s="8" t="str">
@@ -8252,8 +8211,8 @@
       </c>
       <c r="G228" s="8"/>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="29">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="26">
         <v>292</v>
       </c>
       <c r="B229" s="4" t="s">
@@ -8265,7 +8224,7 @@
       <c r="D229" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="E229" s="23" t="s">
+      <c r="E229" s="20" t="s">
         <v>731</v>
       </c>
       <c r="F229" s="8" t="str">
@@ -8274,8 +8233,8 @@
       </c>
       <c r="G229" s="8"/>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="29">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="26">
         <v>293</v>
       </c>
       <c r="B230" s="4" t="s">
@@ -8287,7 +8246,7 @@
       <c r="D230" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="E230" s="23" t="s">
+      <c r="E230" s="20" t="s">
         <v>733</v>
       </c>
       <c r="F230" s="8" t="str">
@@ -8296,8 +8255,8 @@
       </c>
       <c r="G230" s="8"/>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="29">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="26">
         <v>294</v>
       </c>
       <c r="B231" s="4" t="s">
@@ -8309,7 +8268,7 @@
       <c r="D231" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="E231" s="23" t="s">
+      <c r="E231" s="20" t="s">
         <v>736</v>
       </c>
       <c r="F231" s="8" t="str">
@@ -8318,8 +8277,8 @@
       </c>
       <c r="G231" s="8"/>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="29">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="26">
         <v>295</v>
       </c>
       <c r="B232" s="4" t="s">
@@ -8331,7 +8290,7 @@
       <c r="D232" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="E232" s="23" t="s">
+      <c r="E232" s="20" t="s">
         <v>739</v>
       </c>
       <c r="F232" s="8" t="str">
@@ -8340,8 +8299,8 @@
       </c>
       <c r="G232" s="8"/>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="29">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="26">
         <v>296</v>
       </c>
       <c r="B233" s="4" t="s">
@@ -8353,7 +8312,7 @@
       <c r="D233" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="E233" s="23" t="s">
+      <c r="E233" s="20" t="s">
         <v>741</v>
       </c>
       <c r="F233" s="8" t="str">
@@ -8362,8 +8321,8 @@
       </c>
       <c r="G233" s="8"/>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="29">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="26">
         <v>297</v>
       </c>
       <c r="B234" s="4" t="s">
@@ -8375,7 +8334,7 @@
       <c r="D234" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="E234" s="23" t="s">
+      <c r="E234" s="20" t="s">
         <v>743</v>
       </c>
       <c r="F234" s="8" t="str">
@@ -8385,27 +8344,25 @@
       <c r="G234" s="8"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="29">
-        <v>25</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D235" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E235" s="23"/>
+      <c r="A235" s="26">
+        <v>332</v>
+      </c>
+      <c r="B235" s="5"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="7"/>
+      <c r="E235" s="29" t="s">
+        <v>802</v>
+      </c>
       <c r="F235" s="8" t="str">
         <f>IF(D235=E235,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G235" s="8"/>
-    </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="29">
+      <c r="G235" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="26">
         <v>298</v>
       </c>
       <c r="B236" s="4" t="s">
@@ -8417,7 +8374,7 @@
       <c r="D236" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="E236" s="23" t="s">
+      <c r="E236" s="20" t="s">
         <v>746</v>
       </c>
       <c r="F236" s="8" t="str">
@@ -8427,27 +8384,25 @@
       <c r="G236" s="8"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="29">
-        <v>26</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D237" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E237" s="23"/>
+      <c r="A237" s="26">
+        <v>333</v>
+      </c>
+      <c r="B237" s="5"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="7"/>
+      <c r="E237" s="29" t="s">
+        <v>803</v>
+      </c>
       <c r="F237" s="8" t="str">
         <f>IF(D237=E237,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G237" s="8"/>
-    </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="29">
+      <c r="G237" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="26">
         <v>299</v>
       </c>
       <c r="B238" s="4" t="s">
@@ -8459,7 +8414,7 @@
       <c r="D238" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="E238" s="23" t="s">
+      <c r="E238" s="20" t="s">
         <v>748</v>
       </c>
       <c r="F238" s="8" t="str">
@@ -8468,8 +8423,8 @@
       </c>
       <c r="G238" s="8"/>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="29">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="26">
         <v>300</v>
       </c>
       <c r="B239" s="4" t="s">
@@ -8481,7 +8436,7 @@
       <c r="D239" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="E239" s="23" t="s">
+      <c r="E239" s="20" t="s">
         <v>750</v>
       </c>
       <c r="F239" s="8" t="str">
@@ -8490,8 +8445,8 @@
       </c>
       <c r="G239" s="8"/>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="29">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="26">
         <v>301</v>
       </c>
       <c r="B240" s="4" t="s">
@@ -8503,7 +8458,7 @@
       <c r="D240" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="E240" s="23" t="s">
+      <c r="E240" s="20" t="s">
         <v>753</v>
       </c>
       <c r="F240" s="8" t="str">
@@ -8512,8 +8467,8 @@
       </c>
       <c r="G240" s="8"/>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="29">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="26">
         <v>302</v>
       </c>
       <c r="B241" s="4" t="s">
@@ -8525,7 +8480,7 @@
       <c r="D241" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="E241" s="23" t="s">
+      <c r="E241" s="20" t="s">
         <v>756</v>
       </c>
       <c r="F241" s="8" t="str">
@@ -8534,8 +8489,8 @@
       </c>
       <c r="G241" s="8"/>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="29">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="26">
         <v>303</v>
       </c>
       <c r="B242" s="4" t="s">
@@ -8547,7 +8502,7 @@
       <c r="D242" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="E242" s="23" t="s">
+      <c r="E242" s="20" t="s">
         <v>759</v>
       </c>
       <c r="F242" s="8" t="str">
@@ -8556,8 +8511,8 @@
       </c>
       <c r="G242" s="8"/>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="29">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="26">
         <v>304</v>
       </c>
       <c r="B243" s="4" t="s">
@@ -8569,7 +8524,7 @@
       <c r="D243" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="E243" s="23" t="s">
+      <c r="E243" s="20" t="s">
         <v>761</v>
       </c>
       <c r="F243" s="8" t="str">
@@ -8578,8 +8533,8 @@
       </c>
       <c r="G243" s="8"/>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="29">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="26">
         <v>305</v>
       </c>
       <c r="B244" s="4" t="s">
@@ -8591,7 +8546,7 @@
       <c r="D244" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="E244" s="23" t="s">
+      <c r="E244" s="20" t="s">
         <v>763</v>
       </c>
       <c r="F244" s="8" t="str">
@@ -8601,47 +8556,43 @@
       <c r="G244" s="8"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="29">
-        <v>27</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D245" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E245" s="23"/>
+      <c r="A245" s="26">
+        <v>334</v>
+      </c>
+      <c r="B245" s="5"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="29" t="s">
+        <v>804</v>
+      </c>
       <c r="F245" s="8" t="str">
         <f>IF(D245=E245,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G245" s="8"/>
+      <c r="G245" s="8" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="29">
-        <v>28</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D246" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E246" s="23"/>
+      <c r="A246" s="26">
+        <v>335</v>
+      </c>
+      <c r="B246" s="5"/>
+      <c r="C246" s="3"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="29" t="s">
+        <v>805</v>
+      </c>
       <c r="F246" s="8" t="str">
         <f>IF(D246=E246,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G246" s="8"/>
-    </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="29">
+      <c r="G246" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="26">
         <v>306</v>
       </c>
       <c r="B247" s="4" t="s">
@@ -8653,7 +8604,7 @@
       <c r="D247" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="E247" s="23" t="s">
+      <c r="E247" s="20" t="s">
         <v>766</v>
       </c>
       <c r="F247" s="8" t="str">
@@ -8662,8 +8613,8 @@
       </c>
       <c r="G247" s="8"/>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="29">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="26">
         <v>307</v>
       </c>
       <c r="B248" s="4" t="s">
@@ -8675,7 +8626,7 @@
       <c r="D248" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="E248" s="23" t="s">
+      <c r="E248" s="20" t="s">
         <v>769</v>
       </c>
       <c r="F248" s="8" t="str">
@@ -8684,8 +8635,8 @@
       </c>
       <c r="G248" s="8"/>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="29">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="26">
         <v>308</v>
       </c>
       <c r="B249" s="4" t="s">
@@ -8697,7 +8648,7 @@
       <c r="D249" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="E249" s="23" t="s">
+      <c r="E249" s="20" t="s">
         <v>772</v>
       </c>
       <c r="F249" s="8" t="str">
@@ -8706,8 +8657,8 @@
       </c>
       <c r="G249" s="8"/>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="29">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="26">
         <v>309</v>
       </c>
       <c r="B250" s="4" t="s">
@@ -8719,7 +8670,7 @@
       <c r="D250" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="E250" s="23" t="s">
+      <c r="E250" s="20" t="s">
         <v>774</v>
       </c>
       <c r="F250" s="8" t="str">
@@ -8728,8 +8679,8 @@
       </c>
       <c r="G250" s="8"/>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="29">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="26">
         <v>310</v>
       </c>
       <c r="B251" s="4" t="s">
@@ -8741,7 +8692,7 @@
       <c r="D251" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="E251" s="23" t="s">
+      <c r="E251" s="20" t="s">
         <v>777</v>
       </c>
       <c r="F251" s="8" t="str">
@@ -8750,8 +8701,8 @@
       </c>
       <c r="G251" s="8"/>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="29">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="26">
         <v>311</v>
       </c>
       <c r="B252" s="4" t="s">
@@ -8763,7 +8714,7 @@
       <c r="D252" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="E252" s="23" t="s">
+      <c r="E252" s="20" t="s">
         <v>780</v>
       </c>
       <c r="F252" s="8" t="str">
@@ -8773,27 +8724,25 @@
       <c r="G252" s="8"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="29">
-        <v>29</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D253" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E253" s="23"/>
+      <c r="A253" s="26">
+        <v>336</v>
+      </c>
+      <c r="B253" s="5"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="29" t="s">
+        <v>806</v>
+      </c>
       <c r="F253" s="8" t="str">
         <f>IF(D253=E253,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G253" s="8"/>
-    </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="29">
+      <c r="G253" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="26">
         <v>312</v>
       </c>
       <c r="B254" s="4" t="s">
@@ -8805,7 +8754,7 @@
       <c r="D254" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="E254" s="23" t="s">
+      <c r="E254" s="20" t="s">
         <v>783</v>
       </c>
       <c r="F254" s="8" t="str">
@@ -8815,19 +8764,19 @@
       <c r="G254" s="8"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="29">
-        <v>30</v>
+      <c r="A255" s="26">
+        <v>6</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E255" s="23"/>
+      <c r="E255" s="20"/>
       <c r="F255" s="8" t="str">
         <f>IF(D255=E255,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -8835,19 +8784,19 @@
       <c r="G255" s="8"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="29">
-        <v>31</v>
+      <c r="A256" s="26">
+        <v>7</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D256" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E256" s="23"/>
+      <c r="E256" s="20"/>
       <c r="F256" s="8" t="str">
         <f>IF(D256=E256,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -8855,19 +8804,19 @@
       <c r="G256" s="8"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="29">
-        <v>32</v>
+      <c r="A257" s="26">
+        <v>8</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D257" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E257" s="23"/>
+      <c r="E257" s="20"/>
       <c r="F257" s="8" t="str">
         <f>IF(D257=E257,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -8875,19 +8824,19 @@
       <c r="G257" s="8"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="29">
-        <v>33</v>
+      <c r="A258" s="26">
+        <v>9</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E258" s="23"/>
+      <c r="E258" s="20"/>
       <c r="F258" s="8" t="str">
         <f>IF(D258=E258,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -8895,19 +8844,19 @@
       <c r="G258" s="8"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="29">
-        <v>34</v>
+      <c r="A259" s="26">
+        <v>10</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E259" s="23"/>
+      <c r="E259" s="20"/>
       <c r="F259" s="8" t="str">
         <f>IF(D259=E259,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -8915,41 +8864,39 @@
       <c r="G259" s="8"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="29">
-        <v>196</v>
+      <c r="A260" s="26">
+        <v>11</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>479</v>
+        <v>110</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>480</v>
+        <v>111</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="E260" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="E260" s="20"/>
       <c r="F260" s="8" t="str">
         <f>IF(D260=E260,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G260" s="8" t="s">
-        <v>811</v>
-      </c>
+      <c r="G260" s="8"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="29">
-        <v>35</v>
+      <c r="A261" s="26">
+        <v>12</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E261" s="23"/>
+      <c r="E261" s="20"/>
       <c r="F261" s="8" t="str">
         <f>IF(D261=E261,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -8957,19 +8904,19 @@
       <c r="G261" s="8"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="29">
-        <v>36</v>
+      <c r="A262" s="26">
+        <v>13</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E262" s="23"/>
+      <c r="E262" s="20"/>
       <c r="F262" s="8" t="str">
         <f>IF(D262=E262,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -8977,19 +8924,19 @@
       <c r="G262" s="8"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="29">
-        <v>37</v>
+      <c r="A263" s="26">
+        <v>14</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E263" s="23"/>
+      <c r="E263" s="20"/>
       <c r="F263" s="8" t="str">
         <f>IF(D263=E263,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -8997,41 +8944,39 @@
       <c r="G263" s="8"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="29">
-        <v>38</v>
+      <c r="A264" s="26">
+        <v>15</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C264" s="34" t="s">
-        <v>43</v>
+        <v>108</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E264" s="23"/>
+      <c r="E264" s="20"/>
       <c r="F264" s="8" t="str">
         <f>IF(D264=E264,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G264" s="8" t="s">
-        <v>819</v>
-      </c>
+      <c r="G264" s="8"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="29">
-        <v>39</v>
+      <c r="A265" s="26">
+        <v>16</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E265" s="23"/>
+      <c r="E265" s="20"/>
       <c r="F265" s="8" t="str">
         <f>IF(D265=E265,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9039,19 +8984,19 @@
       <c r="G265" s="8"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="29">
-        <v>40</v>
+      <c r="A266" s="26">
+        <v>17</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E266" s="23"/>
+      <c r="E266" s="20"/>
       <c r="F266" s="8" t="str">
         <f>IF(D266=E266,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9059,19 +9004,19 @@
       <c r="G266" s="8"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="29">
-        <v>41</v>
+      <c r="A267" s="26">
+        <v>18</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E267" s="23"/>
+      <c r="E267" s="20"/>
       <c r="F267" s="8" t="str">
         <f>IF(D267=E267,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9079,19 +9024,19 @@
       <c r="G267" s="8"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="29">
-        <v>42</v>
+      <c r="A268" s="26">
+        <v>19</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E268" s="23"/>
+      <c r="E268" s="20"/>
       <c r="F268" s="8" t="str">
         <f>IF(D268=E268,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9099,19 +9044,19 @@
       <c r="G268" s="8"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="29">
-        <v>43</v>
+      <c r="A269" s="26">
+        <v>20</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E269" s="23"/>
+      <c r="E269" s="20"/>
       <c r="F269" s="8" t="str">
         <f>IF(D269=E269,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9119,19 +9064,19 @@
       <c r="G269" s="8"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="29">
-        <v>44</v>
+      <c r="A270" s="26">
+        <v>21</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="D270" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E270" s="23"/>
+      <c r="E270" s="20"/>
       <c r="F270" s="8" t="str">
         <f>IF(D270=E270,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9139,19 +9084,19 @@
       <c r="G270" s="8"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="29">
-        <v>45</v>
+      <c r="A271" s="26">
+        <v>22</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E271" s="23"/>
+      <c r="E271" s="20"/>
       <c r="F271" s="8" t="str">
         <f>IF(D271=E271,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9159,39 +9104,41 @@
       <c r="G271" s="8"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="29">
-        <v>46</v>
+      <c r="A272" s="26">
+        <v>23</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>163</v>
+        <v>134</v>
+      </c>
+      <c r="C272" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E272" s="23"/>
+      <c r="E272" s="20"/>
       <c r="F272" s="8" t="str">
         <f>IF(D272=E272,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G272" s="8"/>
+      <c r="G272" s="8" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="29">
-        <v>47</v>
+      <c r="A273" s="26">
+        <v>24</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="D273" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E273" s="23"/>
+      <c r="E273" s="20"/>
       <c r="F273" s="8" t="str">
         <f>IF(D273=E273,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9199,19 +9146,19 @@
       <c r="G273" s="8"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="29">
-        <v>48</v>
+      <c r="A274" s="26">
+        <v>25</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C274" s="34" t="s">
-        <v>147</v>
+        <v>104</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D274" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E274" s="23"/>
+      <c r="E274" s="20"/>
       <c r="F274" s="8" t="str">
         <f>IF(D274=E274,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9219,19 +9166,19 @@
       <c r="G274" s="8"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="29">
-        <v>49</v>
+      <c r="A275" s="26">
+        <v>26</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E275" s="23"/>
+      <c r="E275" s="20"/>
       <c r="F275" s="8" t="str">
         <f>IF(D275=E275,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9239,19 +9186,19 @@
       <c r="G275" s="8"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="29">
-        <v>50</v>
+      <c r="A276" s="26">
+        <v>27</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E276" s="23"/>
+      <c r="E276" s="20"/>
       <c r="F276" s="8" t="str">
         <f>IF(D276=E276,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9259,19 +9206,19 @@
       <c r="G276" s="8"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="29">
-        <v>51</v>
+      <c r="A277" s="26">
+        <v>28</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E277" s="23"/>
+      <c r="E277" s="20"/>
       <c r="F277" s="8" t="str">
         <f>IF(D277=E277,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9279,19 +9226,19 @@
       <c r="G277" s="8"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="29">
-        <v>52</v>
+      <c r="A278" s="26">
+        <v>29</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E278" s="23"/>
+      <c r="E278" s="20"/>
       <c r="F278" s="8" t="str">
         <f>IF(D278=E278,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9299,19 +9246,19 @@
       <c r="G278" s="8"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="29">
-        <v>53</v>
+      <c r="A279" s="26">
+        <v>30</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E279" s="23"/>
+      <c r="E279" s="20"/>
       <c r="F279" s="8" t="str">
         <f>IF(D279=E279,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9319,19 +9266,19 @@
       <c r="G279" s="8"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="29">
-        <v>54</v>
+      <c r="A280" s="26">
+        <v>31</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E280" s="23"/>
+      <c r="E280" s="20"/>
       <c r="F280" s="8" t="str">
         <f>IF(D280=E280,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9339,63 +9286,59 @@
       <c r="G280" s="8"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="29">
-        <v>55</v>
+      <c r="A281" s="26">
+        <v>32</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C281" s="34" t="s">
-        <v>107</v>
+        <v>152</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E281" s="23"/>
+      <c r="E281" s="20"/>
       <c r="F281" s="8" t="str">
         <f>IF(D281=E281,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G281" s="8" t="s">
-        <v>821</v>
-      </c>
+      <c r="G281" s="8"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="29">
-        <v>239</v>
+      <c r="A282" s="26">
+        <v>33</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>590</v>
+        <v>26</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>591</v>
+        <v>27</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="E282" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="E282" s="20"/>
       <c r="F282" s="8" t="str">
         <f>IF(D282=E282,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G282" s="8" t="s">
-        <v>814</v>
-      </c>
+      <c r="G282" s="8"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="29">
-        <v>56</v>
+      <c r="A283" s="26">
+        <v>34</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E283" s="23"/>
+      <c r="E283" s="20"/>
       <c r="F283" s="8" t="str">
         <f>IF(D283=E283,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9403,39 +9346,41 @@
       <c r="G283" s="8"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="29">
-        <v>57</v>
+      <c r="A284" s="26">
+        <v>196</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>46</v>
+        <v>479</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>47</v>
+        <v>480</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E284" s="23"/>
+        <v>480</v>
+      </c>
+      <c r="E284" s="15"/>
       <c r="F284" s="8" t="str">
         <f>IF(D284=E284,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G284" s="8"/>
+      <c r="G284" s="8" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="29">
-        <v>58</v>
+      <c r="A285" s="26">
+        <v>35</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E285" s="23"/>
+      <c r="E285" s="20"/>
       <c r="F285" s="8" t="str">
         <f>IF(D285=E285,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9443,41 +9388,39 @@
       <c r="G285" s="8"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="29">
-        <v>59</v>
+      <c r="A286" s="26">
+        <v>36</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C286" s="34" t="s">
-        <v>131</v>
+        <v>100</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D286" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E286" s="23"/>
+      <c r="E286" s="20"/>
       <c r="F286" s="8" t="str">
         <f>IF(D286=E286,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G286" s="8" t="s">
-        <v>820</v>
-      </c>
+      <c r="G286" s="8"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="29">
-        <v>60</v>
+      <c r="A287" s="26">
+        <v>37</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E287" s="23"/>
+      <c r="E287" s="20"/>
       <c r="F287" s="8" t="str">
         <f>IF(D287=E287,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9485,39 +9428,41 @@
       <c r="G287" s="8"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="29">
-        <v>61</v>
+      <c r="A288" s="26">
+        <v>38</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="C288" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E288" s="23"/>
+      <c r="E288" s="20"/>
       <c r="F288" s="8" t="str">
         <f>IF(D288=E288,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G288" s="8"/>
+      <c r="G288" s="8" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="29">
-        <v>62</v>
+      <c r="A289" s="26">
+        <v>39</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E289" s="23"/>
+      <c r="E289" s="20"/>
       <c r="F289" s="8" t="str">
         <f>IF(D289=E289,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9525,19 +9470,19 @@
       <c r="G289" s="8"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="29">
-        <v>63</v>
+      <c r="A290" s="26">
+        <v>40</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E290" s="23"/>
+      <c r="E290" s="20"/>
       <c r="F290" s="8" t="str">
         <f>IF(D290=E290,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9545,19 +9490,19 @@
       <c r="G290" s="8"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" s="29">
-        <v>64</v>
+      <c r="A291" s="26">
+        <v>41</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E291" s="23"/>
+      <c r="E291" s="20"/>
       <c r="F291" s="8" t="str">
         <f>IF(D291=E291,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9565,19 +9510,19 @@
       <c r="G291" s="8"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="29">
-        <v>65</v>
+      <c r="A292" s="26">
+        <v>42</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E292" s="23"/>
+      <c r="E292" s="20"/>
       <c r="F292" s="8" t="str">
         <f>IF(D292=E292,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9585,19 +9530,19 @@
       <c r="G292" s="8"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="29">
-        <v>66</v>
+      <c r="A293" s="26">
+        <v>43</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E293" s="23"/>
+      <c r="E293" s="20"/>
       <c r="F293" s="8" t="str">
         <f>IF(D293=E293,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9605,19 +9550,19 @@
       <c r="G293" s="8"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="29">
-        <v>67</v>
+      <c r="A294" s="26">
+        <v>44</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="D294" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E294" s="23"/>
+      <c r="E294" s="20"/>
       <c r="F294" s="8" t="str">
         <f>IF(D294=E294,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9625,19 +9570,19 @@
       <c r="G294" s="8"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="29">
-        <v>68</v>
+      <c r="A295" s="26">
+        <v>45</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E295" s="23"/>
+      <c r="E295" s="20"/>
       <c r="F295" s="8" t="str">
         <f>IF(D295=E295,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9645,19 +9590,19 @@
       <c r="G295" s="8"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" s="29">
-        <v>69</v>
+      <c r="A296" s="26">
+        <v>46</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E296" s="23"/>
+      <c r="E296" s="20"/>
       <c r="F296" s="8" t="str">
         <f>IF(D296=E296,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9665,19 +9610,19 @@
       <c r="G296" s="8"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="29">
-        <v>70</v>
+      <c r="A297" s="26">
+        <v>47</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E297" s="23"/>
+      <c r="E297" s="20"/>
       <c r="F297" s="8" t="str">
         <f>IF(D297=E297,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9685,19 +9630,19 @@
       <c r="G297" s="8"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" s="29">
-        <v>71</v>
+      <c r="A298" s="26">
+        <v>48</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
+      </c>
+      <c r="C298" s="28" t="s">
+        <v>147</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E298" s="23"/>
+      <c r="E298" s="20"/>
       <c r="F298" s="8" t="str">
         <f>IF(D298=E298,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9705,19 +9650,19 @@
       <c r="G298" s="8"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="29">
-        <v>72</v>
+      <c r="A299" s="26">
+        <v>49</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E299" s="23"/>
+      <c r="E299" s="20"/>
       <c r="F299" s="8" t="str">
         <f>IF(D299=E299,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9725,19 +9670,19 @@
       <c r="G299" s="8"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" s="29">
-        <v>73</v>
+      <c r="A300" s="26">
+        <v>50</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E300" s="23"/>
+      <c r="E300" s="20"/>
       <c r="F300" s="8" t="str">
         <f>IF(D300=E300,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9745,19 +9690,19 @@
       <c r="G300" s="8"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="29">
-        <v>74</v>
+      <c r="A301" s="26">
+        <v>51</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E301" s="23"/>
+      <c r="E301" s="20"/>
       <c r="F301" s="8" t="str">
         <f>IF(D301=E301,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9765,19 +9710,19 @@
       <c r="G301" s="8"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" s="29">
-        <v>75</v>
+      <c r="A302" s="26">
+        <v>52</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E302" s="23"/>
+      <c r="E302" s="20"/>
       <c r="F302" s="8" t="str">
         <f>IF(D302=E302,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9785,41 +9730,39 @@
       <c r="G302" s="8"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" s="29">
-        <v>271</v>
+      <c r="A303" s="26">
+        <v>53</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>675</v>
+        <v>120</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>676</v>
+        <v>121</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="E303" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="E303" s="20"/>
       <c r="F303" s="8" t="str">
         <f>IF(D303=E303,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G303" s="8" t="s">
-        <v>816</v>
-      </c>
+      <c r="G303" s="8"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="29">
-        <v>76</v>
+      <c r="A304" s="26">
+        <v>54</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E304" s="23"/>
+      <c r="E304" s="20"/>
       <c r="F304" s="8" t="str">
         <f>IF(D304=E304,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9827,59 +9770,63 @@
       <c r="G304" s="8"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" s="29">
-        <v>77</v>
+      <c r="A305" s="26">
+        <v>55</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>73</v>
+        <v>106</v>
+      </c>
+      <c r="C305" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E305" s="23"/>
+      <c r="E305" s="20"/>
       <c r="F305" s="8" t="str">
         <f>IF(D305=E305,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G305" s="8"/>
+      <c r="G305" s="8" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="29">
-        <v>78</v>
+      <c r="A306" s="26">
+        <v>239</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>164</v>
+        <v>590</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>165</v>
+        <v>591</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E306" s="23"/>
+        <v>591</v>
+      </c>
+      <c r="E306" s="15"/>
       <c r="F306" s="8" t="str">
         <f>IF(D306=E306,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G306" s="8"/>
+      <c r="G306" s="8" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" s="29">
-        <v>79</v>
+      <c r="A307" s="26">
+        <v>56</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E307" s="23"/>
+      <c r="E307" s="20"/>
       <c r="F307" s="8" t="str">
         <f>IF(D307=E307,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9887,19 +9834,19 @@
       <c r="G307" s="8"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="29">
-        <v>80</v>
+      <c r="A308" s="26">
+        <v>57</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E308" s="23"/>
+      <c r="E308" s="20"/>
       <c r="F308" s="8" t="str">
         <f>IF(D308=E308,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9907,19 +9854,19 @@
       <c r="G308" s="8"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309" s="29">
-        <v>81</v>
+      <c r="A309" s="26">
+        <v>58</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E309" s="23"/>
+      <c r="E309" s="20"/>
       <c r="F309" s="8" t="str">
         <f>IF(D309=E309,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9927,39 +9874,41 @@
       <c r="G309" s="8"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" s="29">
-        <v>82</v>
+      <c r="A310" s="26">
+        <v>59</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>63</v>
+        <v>130</v>
+      </c>
+      <c r="C310" s="28" t="s">
+        <v>131</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E310" s="23"/>
+      <c r="E310" s="20"/>
       <c r="F310" s="8" t="str">
         <f>IF(D310=E310,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G310" s="8"/>
+      <c r="G310" s="8" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311" s="29">
-        <v>83</v>
+      <c r="A311" s="26">
+        <v>60</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E311" s="23"/>
+      <c r="E311" s="20"/>
       <c r="F311" s="8" t="str">
         <f>IF(D311=E311,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9967,19 +9916,19 @@
       <c r="G311" s="8"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="29">
-        <v>84</v>
+      <c r="A312" s="26">
+        <v>61</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E312" s="23"/>
+      <c r="E312" s="20"/>
       <c r="F312" s="8" t="str">
         <f>IF(D312=E312,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -9987,19 +9936,19 @@
       <c r="G312" s="8"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="29">
-        <v>85</v>
+      <c r="A313" s="26">
+        <v>62</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E313" s="23"/>
+      <c r="E313" s="20"/>
       <c r="F313" s="8" t="str">
         <f>IF(D313=E313,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -10007,19 +9956,19 @@
       <c r="G313" s="8"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="29">
-        <v>86</v>
+      <c r="A314" s="26">
+        <v>63</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E314" s="23"/>
+      <c r="E314" s="20"/>
       <c r="F314" s="8" t="str">
         <f>IF(D314=E314,"Matched","Not Matched")</f>
         <v>Not Matched</v>
@@ -10027,444 +9976,492 @@
       <c r="G314" s="8"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" s="29">
-        <v>313</v>
-      </c>
-      <c r="B315" s="5"/>
-      <c r="C315" s="3"/>
-      <c r="D315" s="7"/>
-      <c r="E315" s="35" t="s">
-        <v>787</v>
-      </c>
+      <c r="A315" s="26">
+        <v>64</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E315" s="20"/>
       <c r="F315" s="8" t="str">
         <f>IF(D315=E315,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G315" s="8" t="s">
-        <v>788</v>
-      </c>
+      <c r="G315" s="8"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" s="29">
-        <v>314</v>
-      </c>
-      <c r="B316" s="5"/>
-      <c r="C316" s="3"/>
-      <c r="D316" s="7"/>
-      <c r="E316" s="35" t="s">
-        <v>789</v>
-      </c>
+      <c r="A316" s="26">
+        <v>65</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E316" s="20"/>
       <c r="F316" s="8" t="str">
         <f>IF(D316=E316,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G316" s="8" t="s">
-        <v>788</v>
-      </c>
+      <c r="G316" s="8"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" s="29">
-        <v>315</v>
-      </c>
-      <c r="B317" s="5"/>
-      <c r="C317" s="3"/>
-      <c r="D317" s="7"/>
-      <c r="E317" s="35" t="s">
-        <v>790</v>
-      </c>
+      <c r="A317" s="26">
+        <v>66</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E317" s="20"/>
       <c r="F317" s="8" t="str">
         <f>IF(D317=E317,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G317" s="8" t="s">
-        <v>788</v>
-      </c>
+      <c r="G317" s="8"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" s="29">
-        <v>316</v>
-      </c>
-      <c r="B318" s="5"/>
-      <c r="C318" s="3"/>
-      <c r="D318" s="7"/>
-      <c r="E318" s="35" t="s">
-        <v>791</v>
-      </c>
+      <c r="A318" s="26">
+        <v>67</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E318" s="20"/>
       <c r="F318" s="8" t="str">
         <f>IF(D318=E318,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G318" s="8" t="s">
-        <v>788</v>
-      </c>
+      <c r="G318" s="8"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="29">
-        <v>317</v>
-      </c>
-      <c r="B319" s="5"/>
-      <c r="C319" s="3"/>
-      <c r="D319" s="7"/>
-      <c r="E319" s="35" t="s">
-        <v>792</v>
-      </c>
+      <c r="A319" s="26">
+        <v>68</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E319" s="20"/>
       <c r="F319" s="8" t="str">
         <f>IF(D319=E319,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G319" s="8" t="s">
-        <v>815</v>
-      </c>
+      <c r="G319" s="8"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="29">
-        <v>318</v>
-      </c>
-      <c r="B320" s="5"/>
-      <c r="C320" s="3"/>
-      <c r="D320" s="7"/>
-      <c r="E320" s="35" t="s">
-        <v>135</v>
-      </c>
+      <c r="A320" s="26">
+        <v>69</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E320" s="20"/>
       <c r="F320" s="8" t="str">
         <f>IF(D320=E320,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G320" s="8" t="s">
-        <v>817</v>
-      </c>
+      <c r="G320" s="8"/>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="29">
-        <v>319</v>
-      </c>
-      <c r="B321" s="5"/>
-      <c r="C321" s="3"/>
-      <c r="D321" s="7"/>
-      <c r="E321" s="35" t="s">
-        <v>793</v>
-      </c>
+      <c r="A321" s="26">
+        <v>70</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E321" s="20"/>
       <c r="F321" s="8" t="str">
         <f>IF(D321=E321,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G321" s="8" t="s">
-        <v>812</v>
-      </c>
+      <c r="G321" s="8"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" s="29">
-        <v>320</v>
-      </c>
-      <c r="B322" s="5"/>
-      <c r="C322" s="3"/>
-      <c r="D322" s="7"/>
-      <c r="E322" s="35" t="s">
-        <v>794</v>
-      </c>
+      <c r="A322" s="26">
+        <v>71</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E322" s="20"/>
       <c r="F322" s="8" t="str">
         <f>IF(D322=E322,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G322" s="8" t="s">
-        <v>817</v>
-      </c>
+      <c r="G322" s="8"/>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" s="29">
-        <v>321</v>
-      </c>
-      <c r="B323" s="5"/>
-      <c r="C323" s="3"/>
-      <c r="D323" s="7"/>
-      <c r="E323" s="35" t="s">
-        <v>795</v>
-      </c>
+      <c r="A323" s="26">
+        <v>72</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E323" s="20"/>
       <c r="F323" s="8" t="str">
         <f>IF(D323=E323,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G323" s="8" t="s">
-        <v>788</v>
-      </c>
+      <c r="G323" s="8"/>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324" s="29">
-        <v>322</v>
-      </c>
-      <c r="B324" s="5"/>
-      <c r="C324" s="3"/>
-      <c r="D324" s="7"/>
-      <c r="E324" s="35" t="s">
-        <v>595</v>
-      </c>
+      <c r="A324" s="26">
+        <v>73</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E324" s="20"/>
       <c r="F324" s="8" t="str">
         <f>IF(D324=E324,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G324" s="8" t="s">
-        <v>788</v>
-      </c>
+      <c r="G324" s="8"/>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325" s="29">
-        <v>323</v>
-      </c>
-      <c r="B325" s="5"/>
-      <c r="C325" s="3"/>
-      <c r="D325" s="7"/>
-      <c r="E325" s="35" t="s">
-        <v>796</v>
-      </c>
+      <c r="A325" s="26">
+        <v>74</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E325" s="20"/>
       <c r="F325" s="8" t="str">
         <f>IF(D325=E325,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G325" s="8" t="s">
-        <v>788</v>
-      </c>
+      <c r="G325" s="8"/>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" s="29">
-        <v>324</v>
-      </c>
-      <c r="B326" s="5"/>
-      <c r="C326" s="3"/>
-      <c r="D326" s="7"/>
-      <c r="E326" s="35" t="s">
-        <v>43</v>
-      </c>
+      <c r="A326" s="26">
+        <v>75</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E326" s="20"/>
       <c r="F326" s="8" t="str">
         <f>IF(D326=E326,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G326" s="8" t="s">
-        <v>817</v>
-      </c>
+      <c r="G326" s="8"/>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" s="29">
-        <v>325</v>
-      </c>
-      <c r="B327" s="5"/>
-      <c r="C327" s="3"/>
-      <c r="D327" s="7"/>
-      <c r="E327" s="35" t="s">
-        <v>797</v>
-      </c>
+      <c r="A327" s="26">
+        <v>271</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="E327" s="15"/>
       <c r="F327" s="8" t="str">
         <f>IF(D327=E327,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
       <c r="G327" s="8" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="29">
-        <v>326</v>
-      </c>
-      <c r="B328" s="5"/>
-      <c r="C328" s="3"/>
-      <c r="D328" s="7"/>
-      <c r="E328" s="35" t="s">
-        <v>798</v>
-      </c>
+      <c r="A328" s="26">
+        <v>76</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E328" s="20"/>
       <c r="F328" s="8" t="str">
         <f>IF(D328=E328,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G328" s="8" t="s">
-        <v>788</v>
-      </c>
+      <c r="G328" s="8"/>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="29">
-        <v>327</v>
-      </c>
-      <c r="B329" s="5"/>
-      <c r="C329" s="3"/>
-      <c r="D329" s="7"/>
-      <c r="E329" s="35" t="s">
-        <v>799</v>
-      </c>
+      <c r="A329" s="26">
+        <v>77</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E329" s="20"/>
       <c r="F329" s="8" t="str">
         <f>IF(D329=E329,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G329" s="8" t="s">
-        <v>822</v>
-      </c>
+      <c r="G329" s="8"/>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" s="29">
-        <v>328</v>
-      </c>
-      <c r="B330" s="5"/>
-      <c r="C330" s="3"/>
-      <c r="D330" s="7"/>
-      <c r="E330" s="35" t="s">
-        <v>800</v>
-      </c>
+      <c r="A330" s="26">
+        <v>78</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E330" s="20"/>
       <c r="F330" s="8" t="str">
         <f>IF(D330=E330,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G330" s="8" t="s">
-        <v>788</v>
-      </c>
+      <c r="G330" s="8"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" s="29">
-        <v>329</v>
-      </c>
-      <c r="B331" s="5"/>
-      <c r="C331" s="3"/>
-      <c r="D331" s="7"/>
-      <c r="E331" s="35" t="s">
-        <v>131</v>
-      </c>
+      <c r="A331" s="26">
+        <v>79</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E331" s="20"/>
       <c r="F331" s="8" t="str">
         <f>IF(D331=E331,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G331" s="8" t="s">
-        <v>817</v>
-      </c>
+      <c r="G331" s="8"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332" s="29">
-        <v>330</v>
-      </c>
-      <c r="B332" s="5"/>
-      <c r="C332" s="3"/>
-      <c r="D332" s="7"/>
-      <c r="E332" s="35" t="s">
-        <v>801</v>
-      </c>
+      <c r="A332" s="26">
+        <v>80</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E332" s="20"/>
       <c r="F332" s="8" t="str">
         <f>IF(D332=E332,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G332" s="8" t="s">
-        <v>788</v>
-      </c>
+      <c r="G332" s="8"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" s="29">
-        <v>331</v>
-      </c>
-      <c r="B333" s="5"/>
-      <c r="C333" s="3"/>
-      <c r="D333" s="7"/>
-      <c r="E333" s="35" t="s">
-        <v>802</v>
-      </c>
+      <c r="A333" s="26">
+        <v>81</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E333" s="20"/>
       <c r="F333" s="8" t="str">
         <f>IF(D333=E333,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G333" s="8" t="s">
-        <v>788</v>
-      </c>
+      <c r="G333" s="8"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="29">
-        <v>332</v>
-      </c>
-      <c r="B334" s="5"/>
-      <c r="C334" s="3"/>
-      <c r="D334" s="7"/>
-      <c r="E334" s="35" t="s">
-        <v>803</v>
-      </c>
+      <c r="A334" s="26">
+        <v>82</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E334" s="20"/>
       <c r="F334" s="8" t="str">
         <f>IF(D334=E334,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G334" s="8" t="s">
-        <v>813</v>
-      </c>
+      <c r="G334" s="8"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="29">
-        <v>333</v>
-      </c>
-      <c r="B335" s="5"/>
-      <c r="C335" s="3"/>
-      <c r="D335" s="7"/>
-      <c r="E335" s="35" t="s">
-        <v>804</v>
-      </c>
+      <c r="A335" s="26">
+        <v>83</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E335" s="20"/>
       <c r="F335" s="8" t="str">
         <f>IF(D335=E335,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G335" s="8" t="s">
-        <v>788</v>
-      </c>
+      <c r="G335" s="8"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336" s="29">
-        <v>334</v>
-      </c>
-      <c r="B336" s="5"/>
-      <c r="C336" s="3"/>
-      <c r="D336" s="7"/>
-      <c r="E336" s="35" t="s">
-        <v>805</v>
-      </c>
+      <c r="A336" s="26">
+        <v>84</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E336" s="20"/>
       <c r="F336" s="8" t="str">
         <f>IF(D336=E336,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G336" s="8" t="s">
-        <v>788</v>
-      </c>
+      <c r="G336" s="8"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" s="29">
-        <v>335</v>
-      </c>
-      <c r="B337" s="5"/>
-      <c r="C337" s="3"/>
-      <c r="D337" s="7"/>
-      <c r="E337" s="35" t="s">
-        <v>806</v>
-      </c>
+      <c r="A337" s="26">
+        <v>85</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E337" s="20"/>
       <c r="F337" s="8" t="str">
         <f>IF(D337=E337,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G337" s="8" t="s">
-        <v>788</v>
-      </c>
+      <c r="G337" s="8"/>
     </row>
     <row r="338" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="30">
-        <v>336</v>
-      </c>
-      <c r="B338" s="31"/>
-      <c r="C338" s="32"/>
-      <c r="D338" s="33"/>
-      <c r="E338" s="36" t="s">
-        <v>807</v>
-      </c>
-      <c r="F338" s="20" t="str">
+      <c r="A338" s="27">
+        <v>86</v>
+      </c>
+      <c r="B338" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C338" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D338" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E338" s="36"/>
+      <c r="F338" s="17" t="str">
         <f>IF(D338=E338,"Matched","Not Matched")</f>
         <v>Not Matched</v>
       </c>
-      <c r="G338" s="20" t="s">
-        <v>788</v>
-      </c>
+      <c r="G338" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G338" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Not Matched"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A2:G2" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G338">
+      <sortCondition ref="E2"/>
+    </sortState>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
